--- a/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_IPE_EN.xlsx
+++ b/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_IPE_EN.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS\RobotFramework\Document\My Ais\T9_IOS\Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" firstSheet="3" activeTab="5"/>
   </bookViews>
@@ -24844,17 +24839,6 @@
     <t>1.Login My AIS 
 2.Click menu "Top Up/ Payment"
 3.Click menu "Top Up"
-4.Input Invalid Mobile no(eg.66xxxxxxxx)
-5.Select top up channels (Cash Card)
-6.Enter 16 digits PIN code
-7.Click "Next"
-8.Verify popup msg: Please specify a 10digit mobile number.
-9.Capture Screen</t>
-  </si>
-  <si>
-    <t>1.Login My AIS 
-2.Click menu "Top Up/ Payment"
-3.Click menu "Top Up"
 4.Input Mobile no not AIS number
 5.Select top up channels (Cash Card)
 6.Enter 16 digits PIN code
@@ -24920,11 +24904,22 @@
 8.Verify popup msg: Your top up cannot be processed at this time due to the remaining balance of destination number has exceeded the allowing limit for 10,000 Baht.
 9.Capture Screen</t>
   </si>
+  <si>
+    <t>1.Login My AIS 
+2.Click menu "Top Up/ Payment"
+3.Click menu "Top Up"
+4.Input Invalid Mobile no(eg.66xxxxxxxx)
+5.Select top up channels (Cash Card)
+6.Enter 16 digits PIN code
+7.Click "Next"
+8.Verify popup msg: You have entered invalid mobile number.
+9.Capture Screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="m/d/yy"/>
@@ -25601,7 +25596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -25803,6 +25798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26478,7 +26479,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="697">
+  <cellXfs count="704">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -28055,74 +28056,6 @@
     <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -28204,6 +28137,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -28216,24 +28165,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -28247,29 +28290,11 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -28298,55 +28323,37 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28355,27 +28362,14 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="20" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -28384,6 +28378,7 @@
     <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -28391,7 +28386,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -28402,7 +28406,7 @@
     <xf numFmtId="0" fontId="22" fillId="28" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28423,9 +28427,6 @@
     <xf numFmtId="0" fontId="67" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -28437,6 +28438,27 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -28503,7 +28525,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28547,7 +28569,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28591,7 +28613,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28635,7 +28657,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28679,7 +28701,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28723,7 +28745,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28767,7 +28789,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28811,7 +28833,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28855,7 +28877,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28899,7 +28921,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28943,7 +28965,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28987,7 +29009,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29031,7 +29053,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29075,7 +29097,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29119,7 +29141,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29315,7 +29337,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32779,7 +32801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32814,7 +32836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33516,25 +33538,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="582" t="s">
+      <c r="C5" s="610" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="583"/>
-      <c r="E5" s="584"/>
+      <c r="D5" s="611"/>
+      <c r="E5" s="612"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="574"/>
-      <c r="I5" s="574"/>
-      <c r="J5" s="574"/>
+      <c r="H5" s="608"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="608"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="605"/>
-      <c r="E6" s="606"/>
+      <c r="C6" s="584"/>
+      <c r="D6" s="585"/>
+      <c r="E6" s="586"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -33544,23 +33566,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="586"/>
-      <c r="E7" s="587"/>
+      <c r="C7" s="613"/>
+      <c r="D7" s="614"/>
+      <c r="E7" s="615"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="574"/>
-      <c r="J7" s="574"/>
+      <c r="H7" s="608"/>
+      <c r="I7" s="608"/>
+      <c r="J7" s="608"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="588" t="s">
+      <c r="C8" s="616" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="589"/>
-      <c r="E8" s="590"/>
+      <c r="D8" s="617"/>
+      <c r="E8" s="618"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -33583,58 +33605,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="575" t="s">
+      <c r="B11" s="602" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="576"/>
-      <c r="D11" s="577"/>
-      <c r="E11" s="577"/>
-      <c r="F11" s="578"/>
+      <c r="C11" s="603"/>
+      <c r="D11" s="609"/>
+      <c r="E11" s="609"/>
+      <c r="F11" s="604"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="579"/>
-      <c r="D12" s="580"/>
-      <c r="E12" s="580"/>
-      <c r="F12" s="581"/>
+      <c r="C12" s="595"/>
+      <c r="D12" s="597"/>
+      <c r="E12" s="597"/>
+      <c r="F12" s="598"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="579"/>
-      <c r="D13" s="580"/>
-      <c r="E13" s="580"/>
-      <c r="F13" s="581"/>
+      <c r="C13" s="595"/>
+      <c r="D13" s="597"/>
+      <c r="E13" s="597"/>
+      <c r="F13" s="598"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="579"/>
-      <c r="D14" s="580"/>
-      <c r="E14" s="580"/>
-      <c r="F14" s="581"/>
+      <c r="C14" s="595"/>
+      <c r="D14" s="597"/>
+      <c r="E14" s="597"/>
+      <c r="F14" s="598"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="579"/>
-      <c r="D15" s="580"/>
-      <c r="E15" s="580"/>
-      <c r="F15" s="581"/>
+      <c r="C15" s="595"/>
+      <c r="D15" s="597"/>
+      <c r="E15" s="597"/>
+      <c r="F15" s="598"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="615"/>
-      <c r="D16" s="616"/>
-      <c r="E16" s="616"/>
-      <c r="F16" s="617"/>
+      <c r="C16" s="599"/>
+      <c r="D16" s="600"/>
+      <c r="E16" s="600"/>
+      <c r="F16" s="601"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -33644,13 +33666,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="575" t="s">
+      <c r="B18" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="576"/>
-      <c r="D18" s="576"/>
-      <c r="E18" s="576"/>
-      <c r="F18" s="578"/>
+      <c r="C18" s="603"/>
+      <c r="D18" s="603"/>
+      <c r="E18" s="603"/>
+      <c r="F18" s="604"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -33662,10 +33684,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="610" t="s">
+      <c r="E19" s="590" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="618"/>
+      <c r="F19" s="605"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -33677,73 +33699,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="579" t="s">
+      <c r="E20" s="595" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="591"/>
+      <c r="F20" s="596"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="579"/>
-      <c r="F21" s="591"/>
+      <c r="E21" s="595"/>
+      <c r="F21" s="596"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="579"/>
-      <c r="F22" s="591"/>
+      <c r="E22" s="595"/>
+      <c r="F22" s="596"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="579"/>
-      <c r="F23" s="591"/>
+      <c r="E23" s="595"/>
+      <c r="F23" s="596"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="579"/>
-      <c r="F24" s="591"/>
+      <c r="E24" s="595"/>
+      <c r="F24" s="596"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="579"/>
-      <c r="F25" s="591"/>
+      <c r="E25" s="595"/>
+      <c r="F25" s="596"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="579"/>
-      <c r="F26" s="591"/>
+      <c r="E26" s="595"/>
+      <c r="F26" s="596"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="579"/>
-      <c r="F27" s="591"/>
+      <c r="E27" s="595"/>
+      <c r="F27" s="596"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="579"/>
-      <c r="F28" s="591"/>
+      <c r="E28" s="595"/>
+      <c r="F28" s="596"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="592"/>
-      <c r="F29" s="593"/>
+      <c r="E29" s="606"/>
+      <c r="F29" s="607"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -33753,67 +33775,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="607" t="s">
+      <c r="B31" s="587" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="608"/>
-      <c r="D31" s="608"/>
-      <c r="E31" s="609"/>
+      <c r="C31" s="588"/>
+      <c r="D31" s="588"/>
+      <c r="E31" s="589"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="610" t="s">
+      <c r="C32" s="590" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="611"/>
-      <c r="E32" s="611"/>
+      <c r="D32" s="591"/>
+      <c r="E32" s="591"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="596"/>
-      <c r="D33" s="597"/>
-      <c r="E33" s="597"/>
+      <c r="C33" s="576"/>
+      <c r="D33" s="577"/>
+      <c r="E33" s="577"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="612"/>
-      <c r="D34" s="613"/>
-      <c r="E34" s="614"/>
+      <c r="C34" s="592"/>
+      <c r="D34" s="593"/>
+      <c r="E34" s="594"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="594"/>
-      <c r="D35" s="595"/>
-      <c r="E35" s="595"/>
+      <c r="C35" s="574"/>
+      <c r="D35" s="575"/>
+      <c r="E35" s="575"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="596"/>
-      <c r="D36" s="597"/>
-      <c r="E36" s="597"/>
+      <c r="C36" s="576"/>
+      <c r="D36" s="577"/>
+      <c r="E36" s="577"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="598"/>
-      <c r="D37" s="599"/>
-      <c r="E37" s="600"/>
+      <c r="C37" s="578"/>
+      <c r="D37" s="579"/>
+      <c r="E37" s="580"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="601"/>
-      <c r="D38" s="602"/>
-      <c r="E38" s="603"/>
+      <c r="C38" s="581"/>
+      <c r="D38" s="582"/>
+      <c r="E38" s="583"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -33839,6 +33861,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -33855,22 +33893,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33908,98 +33930,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="679" t="s">
+      <c r="A1" s="678" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="667" t="s">
+      <c r="B1" s="677" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="667" t="s">
+      <c r="C1" s="677" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="667" t="s">
+      <c r="D1" s="677" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="667" t="s">
+      <c r="E1" s="677" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="667" t="s">
+      <c r="F1" s="677" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="667" t="s">
+      <c r="G1" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="667" t="s">
+      <c r="H1" s="677" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="667" t="s">
+      <c r="I1" s="677" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="667" t="s">
+      <c r="J1" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="667" t="s">
+      <c r="K1" s="677" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="667" t="s">
+      <c r="L1" s="677" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="676" t="s">
+      <c r="M1" s="673" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="677" t="s">
+      <c r="N1" s="675" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="668"/>
-      <c r="B2" s="668"/>
-      <c r="C2" s="668"/>
-      <c r="D2" s="668"/>
-      <c r="E2" s="668"/>
-      <c r="F2" s="668"/>
-      <c r="G2" s="668"/>
-      <c r="H2" s="668"/>
-      <c r="I2" s="668"/>
-      <c r="J2" s="668"/>
-      <c r="K2" s="668"/>
-      <c r="L2" s="668"/>
-      <c r="M2" s="668"/>
-      <c r="N2" s="671"/>
+      <c r="A2" s="674"/>
+      <c r="B2" s="674"/>
+      <c r="C2" s="674"/>
+      <c r="D2" s="674"/>
+      <c r="E2" s="674"/>
+      <c r="F2" s="674"/>
+      <c r="G2" s="674"/>
+      <c r="H2" s="674"/>
+      <c r="I2" s="674"/>
+      <c r="J2" s="674"/>
+      <c r="K2" s="674"/>
+      <c r="L2" s="674"/>
+      <c r="M2" s="674"/>
+      <c r="N2" s="669"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="673" t="s">
+      <c r="A3" s="670" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="674"/>
-      <c r="C3" s="674"/>
-      <c r="D3" s="674"/>
-      <c r="E3" s="674"/>
-      <c r="F3" s="674"/>
-      <c r="G3" s="674"/>
-      <c r="H3" s="674"/>
-      <c r="I3" s="674"/>
-      <c r="J3" s="674"/>
-      <c r="K3" s="674"/>
-      <c r="L3" s="675"/>
+      <c r="B3" s="671"/>
+      <c r="C3" s="671"/>
+      <c r="D3" s="671"/>
+      <c r="E3" s="671"/>
+      <c r="F3" s="671"/>
+      <c r="G3" s="671"/>
+      <c r="H3" s="671"/>
+      <c r="I3" s="671"/>
+      <c r="J3" s="671"/>
+      <c r="K3" s="671"/>
+      <c r="L3" s="672"/>
       <c r="M3" s="83"/>
       <c r="N3" s="84"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="678" t="s">
+      <c r="A4" s="676" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="674"/>
-      <c r="C4" s="674"/>
-      <c r="D4" s="674"/>
-      <c r="E4" s="674"/>
-      <c r="F4" s="674"/>
-      <c r="G4" s="674"/>
-      <c r="H4" s="674"/>
-      <c r="I4" s="674"/>
-      <c r="J4" s="674"/>
-      <c r="K4" s="674"/>
-      <c r="L4" s="675"/>
+      <c r="B4" s="671"/>
+      <c r="C4" s="671"/>
+      <c r="D4" s="671"/>
+      <c r="E4" s="671"/>
+      <c r="F4" s="671"/>
+      <c r="G4" s="671"/>
+      <c r="H4" s="671"/>
+      <c r="I4" s="671"/>
+      <c r="J4" s="671"/>
+      <c r="K4" s="671"/>
+      <c r="L4" s="672"/>
       <c r="M4" s="85"/>
       <c r="N4" s="86"/>
     </row>
@@ -34171,20 +34193,20 @@
       <c r="N10" s="116"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="673" t="s">
+      <c r="A11" s="670" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="670"/>
-      <c r="C11" s="670"/>
-      <c r="D11" s="674"/>
-      <c r="E11" s="670"/>
-      <c r="F11" s="674"/>
-      <c r="G11" s="674"/>
-      <c r="H11" s="674"/>
-      <c r="I11" s="674"/>
-      <c r="J11" s="674"/>
-      <c r="K11" s="674"/>
-      <c r="L11" s="675"/>
+      <c r="B11" s="668"/>
+      <c r="C11" s="668"/>
+      <c r="D11" s="671"/>
+      <c r="E11" s="668"/>
+      <c r="F11" s="671"/>
+      <c r="G11" s="671"/>
+      <c r="H11" s="671"/>
+      <c r="I11" s="671"/>
+      <c r="J11" s="671"/>
+      <c r="K11" s="671"/>
+      <c r="L11" s="672"/>
       <c r="M11" s="83"/>
       <c r="N11" s="83"/>
     </row>
@@ -34245,20 +34267,20 @@
       <c r="N13" s="128"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="673" t="s">
+      <c r="A14" s="670" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="674"/>
-      <c r="C14" s="674"/>
-      <c r="D14" s="674"/>
-      <c r="E14" s="674"/>
-      <c r="F14" s="674"/>
-      <c r="G14" s="674"/>
-      <c r="H14" s="674"/>
-      <c r="I14" s="674"/>
-      <c r="J14" s="674"/>
-      <c r="K14" s="674"/>
-      <c r="L14" s="675"/>
+      <c r="B14" s="671"/>
+      <c r="C14" s="671"/>
+      <c r="D14" s="671"/>
+      <c r="E14" s="671"/>
+      <c r="F14" s="671"/>
+      <c r="G14" s="671"/>
+      <c r="H14" s="671"/>
+      <c r="I14" s="671"/>
+      <c r="J14" s="671"/>
+      <c r="K14" s="671"/>
+      <c r="L14" s="672"/>
       <c r="M14" s="127"/>
       <c r="N14" s="128"/>
     </row>
@@ -34319,20 +34341,20 @@
       <c r="N16" s="136"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="669" t="s">
+      <c r="A17" s="679" t="s">
         <v>382</v>
       </c>
-      <c r="B17" s="670"/>
-      <c r="C17" s="670"/>
-      <c r="D17" s="670"/>
-      <c r="E17" s="670"/>
-      <c r="F17" s="670"/>
-      <c r="G17" s="670"/>
-      <c r="H17" s="670"/>
-      <c r="I17" s="670"/>
-      <c r="J17" s="670"/>
-      <c r="K17" s="670"/>
-      <c r="L17" s="671"/>
+      <c r="B17" s="668"/>
+      <c r="C17" s="668"/>
+      <c r="D17" s="668"/>
+      <c r="E17" s="668"/>
+      <c r="F17" s="668"/>
+      <c r="G17" s="668"/>
+      <c r="H17" s="668"/>
+      <c r="I17" s="668"/>
+      <c r="J17" s="668"/>
+      <c r="K17" s="668"/>
+      <c r="L17" s="669"/>
       <c r="M17" s="137"/>
       <c r="N17" s="138"/>
     </row>
@@ -34649,20 +34671,20 @@
       <c r="N30" s="175"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="672" t="s">
+      <c r="A31" s="667" t="s">
         <v>419</v>
       </c>
-      <c r="B31" s="670"/>
-      <c r="C31" s="670"/>
-      <c r="D31" s="670"/>
-      <c r="E31" s="670"/>
-      <c r="F31" s="670"/>
-      <c r="G31" s="670"/>
-      <c r="H31" s="670"/>
-      <c r="I31" s="670"/>
-      <c r="J31" s="670"/>
-      <c r="K31" s="670"/>
-      <c r="L31" s="671"/>
+      <c r="B31" s="668"/>
+      <c r="C31" s="668"/>
+      <c r="D31" s="668"/>
+      <c r="E31" s="668"/>
+      <c r="F31" s="668"/>
+      <c r="G31" s="668"/>
+      <c r="H31" s="668"/>
+      <c r="I31" s="668"/>
+      <c r="J31" s="668"/>
+      <c r="K31" s="668"/>
+      <c r="L31" s="669"/>
       <c r="M31" s="176"/>
       <c r="N31" s="176"/>
     </row>
@@ -49126,6 +49148,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -49142,10 +49168,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49175,56 +49197,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="686" t="s">
+      <c r="A1" s="687" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="688" t="s">
+      <c r="B1" s="689" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="688" t="s">
+      <c r="C1" s="689" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="689" t="s">
+      <c r="D1" s="690" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="689" t="s">
+      <c r="E1" s="690" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="688" t="s">
+      <c r="F1" s="689" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="688" t="s">
+      <c r="G1" s="689" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="688" t="s">
+      <c r="H1" s="689" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="688" t="s">
+      <c r="I1" s="689" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="688" t="s">
+      <c r="J1" s="689" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="691" t="s">
+      <c r="K1" s="692" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="684" t="s">
+      <c r="L1" s="685" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="687"/>
-      <c r="B2" s="687"/>
-      <c r="C2" s="687"/>
-      <c r="D2" s="690"/>
-      <c r="E2" s="690"/>
-      <c r="F2" s="687"/>
-      <c r="G2" s="687"/>
-      <c r="H2" s="687"/>
-      <c r="I2" s="687"/>
-      <c r="J2" s="687"/>
-      <c r="K2" s="687"/>
-      <c r="L2" s="685"/>
+      <c r="A2" s="688"/>
+      <c r="B2" s="688"/>
+      <c r="C2" s="688"/>
+      <c r="D2" s="691"/>
+      <c r="E2" s="691"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
+      <c r="H2" s="688"/>
+      <c r="I2" s="688"/>
+      <c r="J2" s="688"/>
+      <c r="K2" s="688"/>
+      <c r="L2" s="686"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="197" t="s">
@@ -49747,20 +49769,20 @@
       <c r="L25" s="220"/>
     </row>
     <row r="26" spans="1:12" s="237" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="680" t="s">
+      <c r="A26" s="681" t="s">
         <v>516</v>
       </c>
-      <c r="B26" s="681"/>
-      <c r="C26" s="681"/>
-      <c r="D26" s="681"/>
-      <c r="E26" s="681"/>
-      <c r="F26" s="681"/>
-      <c r="G26" s="681"/>
-      <c r="H26" s="681"/>
-      <c r="I26" s="681"/>
-      <c r="J26" s="681"/>
-      <c r="K26" s="681"/>
-      <c r="L26" s="682"/>
+      <c r="B26" s="682"/>
+      <c r="C26" s="682"/>
+      <c r="D26" s="682"/>
+      <c r="E26" s="682"/>
+      <c r="F26" s="682"/>
+      <c r="G26" s="682"/>
+      <c r="H26" s="682"/>
+      <c r="I26" s="682"/>
+      <c r="J26" s="682"/>
+      <c r="K26" s="682"/>
+      <c r="L26" s="683"/>
     </row>
     <row r="27" spans="1:12" s="237" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="78" t="s">
@@ -50403,20 +50425,20 @@
       <c r="L54" s="242"/>
     </row>
     <row r="55" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="683" t="s">
+      <c r="A55" s="680" t="s">
         <v>576</v>
       </c>
-      <c r="B55" s="683"/>
-      <c r="C55" s="683"/>
-      <c r="D55" s="683"/>
-      <c r="E55" s="683"/>
-      <c r="F55" s="683"/>
-      <c r="G55" s="683"/>
-      <c r="H55" s="683"/>
-      <c r="I55" s="683"/>
-      <c r="J55" s="683"/>
-      <c r="K55" s="683"/>
-      <c r="L55" s="683"/>
+      <c r="B55" s="680"/>
+      <c r="C55" s="680"/>
+      <c r="D55" s="680"/>
+      <c r="E55" s="680"/>
+      <c r="F55" s="680"/>
+      <c r="G55" s="680"/>
+      <c r="H55" s="680"/>
+      <c r="I55" s="680"/>
+      <c r="J55" s="680"/>
+      <c r="K55" s="680"/>
+      <c r="L55" s="680"/>
     </row>
     <row r="56" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="78" t="s">
@@ -50467,20 +50489,20 @@
       <c r="L57" s="242"/>
     </row>
     <row r="58" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="683" t="s">
+      <c r="A58" s="680" t="s">
         <v>581</v>
       </c>
-      <c r="B58" s="683"/>
-      <c r="C58" s="683"/>
-      <c r="D58" s="683"/>
-      <c r="E58" s="683"/>
-      <c r="F58" s="683"/>
-      <c r="G58" s="683"/>
-      <c r="H58" s="683"/>
-      <c r="I58" s="683"/>
-      <c r="J58" s="683"/>
-      <c r="K58" s="683"/>
-      <c r="L58" s="683"/>
+      <c r="B58" s="680"/>
+      <c r="C58" s="680"/>
+      <c r="D58" s="680"/>
+      <c r="E58" s="680"/>
+      <c r="F58" s="680"/>
+      <c r="G58" s="680"/>
+      <c r="H58" s="680"/>
+      <c r="I58" s="680"/>
+      <c r="J58" s="680"/>
+      <c r="K58" s="680"/>
+      <c r="L58" s="680"/>
     </row>
     <row r="59" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78" t="s">
@@ -50531,20 +50553,20 @@
       <c r="L60" s="242"/>
     </row>
     <row r="61" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="683" t="s">
+      <c r="A61" s="680" t="s">
         <v>587</v>
       </c>
-      <c r="B61" s="683"/>
-      <c r="C61" s="683"/>
-      <c r="D61" s="683"/>
-      <c r="E61" s="683"/>
-      <c r="F61" s="683"/>
-      <c r="G61" s="683"/>
-      <c r="H61" s="683"/>
-      <c r="I61" s="683"/>
-      <c r="J61" s="683"/>
-      <c r="K61" s="683"/>
-      <c r="L61" s="683"/>
+      <c r="B61" s="680"/>
+      <c r="C61" s="680"/>
+      <c r="D61" s="680"/>
+      <c r="E61" s="680"/>
+      <c r="F61" s="680"/>
+      <c r="G61" s="680"/>
+      <c r="H61" s="680"/>
+      <c r="I61" s="680"/>
+      <c r="J61" s="680"/>
+      <c r="K61" s="680"/>
+      <c r="L61" s="680"/>
     </row>
     <row r="62" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78" t="s">
@@ -50595,20 +50617,20 @@
       <c r="L63" s="242"/>
     </row>
     <row r="64" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="680" t="s">
+      <c r="A64" s="681" t="s">
         <v>593</v>
       </c>
-      <c r="B64" s="681"/>
-      <c r="C64" s="681"/>
-      <c r="D64" s="681"/>
-      <c r="E64" s="681"/>
-      <c r="F64" s="681"/>
-      <c r="G64" s="681"/>
-      <c r="H64" s="681"/>
-      <c r="I64" s="681"/>
-      <c r="J64" s="681"/>
-      <c r="K64" s="681"/>
-      <c r="L64" s="682"/>
+      <c r="B64" s="682"/>
+      <c r="C64" s="682"/>
+      <c r="D64" s="682"/>
+      <c r="E64" s="682"/>
+      <c r="F64" s="682"/>
+      <c r="G64" s="682"/>
+      <c r="H64" s="682"/>
+      <c r="I64" s="682"/>
+      <c r="J64" s="682"/>
+      <c r="K64" s="682"/>
+      <c r="L64" s="683"/>
     </row>
     <row r="65" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
@@ -50707,20 +50729,20 @@
       <c r="L68" s="242"/>
     </row>
     <row r="69" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="683" t="s">
+      <c r="A69" s="680" t="s">
         <v>605</v>
       </c>
-      <c r="B69" s="683"/>
-      <c r="C69" s="683"/>
-      <c r="D69" s="683"/>
-      <c r="E69" s="683"/>
-      <c r="F69" s="683"/>
-      <c r="G69" s="683"/>
-      <c r="H69" s="683"/>
-      <c r="I69" s="683"/>
-      <c r="J69" s="683"/>
-      <c r="K69" s="683"/>
-      <c r="L69" s="683"/>
+      <c r="B69" s="680"/>
+      <c r="C69" s="680"/>
+      <c r="D69" s="680"/>
+      <c r="E69" s="680"/>
+      <c r="F69" s="680"/>
+      <c r="G69" s="680"/>
+      <c r="H69" s="680"/>
+      <c r="I69" s="680"/>
+      <c r="J69" s="680"/>
+      <c r="K69" s="680"/>
+      <c r="L69" s="680"/>
     </row>
     <row r="70" spans="1:12" s="529" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="525" t="s">
@@ -50843,20 +50865,20 @@
       <c r="L74" s="242"/>
     </row>
     <row r="75" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="683" t="s">
+      <c r="A75" s="680" t="s">
         <v>618</v>
       </c>
-      <c r="B75" s="683"/>
-      <c r="C75" s="683"/>
-      <c r="D75" s="683"/>
-      <c r="E75" s="683"/>
-      <c r="F75" s="683"/>
-      <c r="G75" s="683"/>
-      <c r="H75" s="683"/>
-      <c r="I75" s="683"/>
-      <c r="J75" s="683"/>
-      <c r="K75" s="683"/>
-      <c r="L75" s="683"/>
+      <c r="B75" s="680"/>
+      <c r="C75" s="680"/>
+      <c r="D75" s="680"/>
+      <c r="E75" s="680"/>
+      <c r="F75" s="680"/>
+      <c r="G75" s="680"/>
+      <c r="H75" s="680"/>
+      <c r="I75" s="680"/>
+      <c r="J75" s="680"/>
+      <c r="K75" s="680"/>
+      <c r="L75" s="680"/>
     </row>
     <row r="76" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="78" t="s">
@@ -50931,20 +50953,20 @@
       <c r="L78" s="242"/>
     </row>
     <row r="79" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="683" t="s">
+      <c r="A79" s="680" t="s">
         <v>626</v>
       </c>
-      <c r="B79" s="683"/>
-      <c r="C79" s="683"/>
-      <c r="D79" s="683"/>
-      <c r="E79" s="683"/>
-      <c r="F79" s="683"/>
-      <c r="G79" s="683"/>
-      <c r="H79" s="683"/>
-      <c r="I79" s="683"/>
-      <c r="J79" s="683"/>
-      <c r="K79" s="683"/>
-      <c r="L79" s="683"/>
+      <c r="B79" s="680"/>
+      <c r="C79" s="680"/>
+      <c r="D79" s="680"/>
+      <c r="E79" s="680"/>
+      <c r="F79" s="680"/>
+      <c r="G79" s="680"/>
+      <c r="H79" s="680"/>
+      <c r="I79" s="680"/>
+      <c r="J79" s="680"/>
+      <c r="K79" s="680"/>
+      <c r="L79" s="680"/>
     </row>
     <row r="80" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="78" t="s">
@@ -51043,20 +51065,20 @@
       <c r="L83" s="242"/>
     </row>
     <row r="84" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="683" t="s">
+      <c r="A84" s="680" t="s">
         <v>636</v>
       </c>
-      <c r="B84" s="683"/>
-      <c r="C84" s="683"/>
-      <c r="D84" s="683"/>
-      <c r="E84" s="683"/>
-      <c r="F84" s="683"/>
-      <c r="G84" s="683"/>
-      <c r="H84" s="683"/>
-      <c r="I84" s="683"/>
-      <c r="J84" s="683"/>
-      <c r="K84" s="683"/>
-      <c r="L84" s="683"/>
+      <c r="B84" s="680"/>
+      <c r="C84" s="680"/>
+      <c r="D84" s="680"/>
+      <c r="E84" s="680"/>
+      <c r="F84" s="680"/>
+      <c r="G84" s="680"/>
+      <c r="H84" s="680"/>
+      <c r="I84" s="680"/>
+      <c r="J84" s="680"/>
+      <c r="K84" s="680"/>
+      <c r="L84" s="680"/>
     </row>
     <row r="85" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="78" t="s">
@@ -51107,20 +51129,20 @@
       <c r="L86" s="242"/>
     </row>
     <row r="87" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="683" t="s">
+      <c r="A87" s="680" t="s">
         <v>642</v>
       </c>
-      <c r="B87" s="683"/>
-      <c r="C87" s="683"/>
-      <c r="D87" s="683"/>
-      <c r="E87" s="683"/>
-      <c r="F87" s="683"/>
-      <c r="G87" s="683"/>
-      <c r="H87" s="683"/>
-      <c r="I87" s="683"/>
-      <c r="J87" s="683"/>
-      <c r="K87" s="683"/>
-      <c r="L87" s="683"/>
+      <c r="B87" s="680"/>
+      <c r="C87" s="680"/>
+      <c r="D87" s="680"/>
+      <c r="E87" s="680"/>
+      <c r="F87" s="680"/>
+      <c r="G87" s="680"/>
+      <c r="H87" s="680"/>
+      <c r="I87" s="680"/>
+      <c r="J87" s="680"/>
+      <c r="K87" s="680"/>
+      <c r="L87" s="680"/>
     </row>
     <row r="88" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="78" t="s">
@@ -51219,20 +51241,20 @@
       <c r="L91" s="242"/>
     </row>
     <row r="92" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="683" t="s">
+      <c r="A92" s="680" t="s">
         <v>650</v>
       </c>
-      <c r="B92" s="683"/>
-      <c r="C92" s="683"/>
-      <c r="D92" s="683"/>
-      <c r="E92" s="683"/>
-      <c r="F92" s="683"/>
-      <c r="G92" s="683"/>
-      <c r="H92" s="683"/>
-      <c r="I92" s="683"/>
-      <c r="J92" s="683"/>
-      <c r="K92" s="683"/>
-      <c r="L92" s="683"/>
+      <c r="B92" s="680"/>
+      <c r="C92" s="680"/>
+      <c r="D92" s="680"/>
+      <c r="E92" s="680"/>
+      <c r="F92" s="680"/>
+      <c r="G92" s="680"/>
+      <c r="H92" s="680"/>
+      <c r="I92" s="680"/>
+      <c r="J92" s="680"/>
+      <c r="K92" s="680"/>
+      <c r="L92" s="680"/>
     </row>
     <row r="93" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="78" t="s">
@@ -51307,20 +51329,20 @@
       <c r="L95" s="242"/>
     </row>
     <row r="96" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="683" t="s">
+      <c r="A96" s="680" t="s">
         <v>658</v>
       </c>
-      <c r="B96" s="683"/>
-      <c r="C96" s="683"/>
-      <c r="D96" s="683"/>
-      <c r="E96" s="683"/>
-      <c r="F96" s="683"/>
-      <c r="G96" s="683"/>
-      <c r="H96" s="683"/>
-      <c r="I96" s="683"/>
-      <c r="J96" s="683"/>
-      <c r="K96" s="683"/>
-      <c r="L96" s="683"/>
+      <c r="B96" s="680"/>
+      <c r="C96" s="680"/>
+      <c r="D96" s="680"/>
+      <c r="E96" s="680"/>
+      <c r="F96" s="680"/>
+      <c r="G96" s="680"/>
+      <c r="H96" s="680"/>
+      <c r="I96" s="680"/>
+      <c r="J96" s="680"/>
+      <c r="K96" s="680"/>
+      <c r="L96" s="680"/>
     </row>
     <row r="97" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="78" t="s">
@@ -51371,20 +51393,20 @@
       <c r="L98" s="242"/>
     </row>
     <row r="99" spans="1:12" s="246" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="692" t="s">
+      <c r="A99" s="684" t="s">
         <v>663</v>
       </c>
-      <c r="B99" s="692"/>
-      <c r="C99" s="692"/>
-      <c r="D99" s="692"/>
-      <c r="E99" s="692"/>
-      <c r="F99" s="692"/>
-      <c r="G99" s="692"/>
-      <c r="H99" s="692"/>
-      <c r="I99" s="692"/>
-      <c r="J99" s="692"/>
-      <c r="K99" s="692"/>
-      <c r="L99" s="692"/>
+      <c r="B99" s="684"/>
+      <c r="C99" s="684"/>
+      <c r="D99" s="684"/>
+      <c r="E99" s="684"/>
+      <c r="F99" s="684"/>
+      <c r="G99" s="684"/>
+      <c r="H99" s="684"/>
+      <c r="I99" s="684"/>
+      <c r="J99" s="684"/>
+      <c r="K99" s="684"/>
+      <c r="L99" s="684"/>
     </row>
     <row r="100" spans="1:12" s="246" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="247" t="s">
@@ -51595,16 +51617,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A58:L58"/>
@@ -51620,6 +51632,16 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54875,10 +54897,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="619" t="s">
+      <c r="A1" s="655" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="619"/>
+      <c r="B1" s="655"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -54913,250 +54935,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="620" t="s">
+      <c r="A2" s="656" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="620" t="s">
+      <c r="B2" s="656" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="620" t="s">
+      <c r="C2" s="656" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="623" t="s">
+      <c r="D2" s="659" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="623"/>
-      <c r="F2" s="623"/>
-      <c r="G2" s="632" t="s">
+      <c r="E2" s="659"/>
+      <c r="F2" s="659"/>
+      <c r="G2" s="625" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="634"/>
-      <c r="K2" s="650" t="s">
+      <c r="H2" s="626"/>
+      <c r="I2" s="626"/>
+      <c r="J2" s="631"/>
+      <c r="K2" s="619" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="650"/>
-      <c r="M2" s="632" t="s">
+      <c r="L2" s="619"/>
+      <c r="M2" s="625" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="633"/>
-      <c r="O2" s="634"/>
-      <c r="P2" s="632" t="s">
+      <c r="N2" s="626"/>
+      <c r="O2" s="631"/>
+      <c r="P2" s="625" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="634"/>
-      <c r="R2" s="632" t="s">
+      <c r="Q2" s="631"/>
+      <c r="R2" s="625" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="633"/>
-      <c r="T2" s="632" t="s">
+      <c r="S2" s="626"/>
+      <c r="T2" s="625" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="633"/>
-      <c r="V2" s="633"/>
-      <c r="W2" s="633"/>
-      <c r="X2" s="634"/>
-      <c r="Y2" s="632" t="s">
+      <c r="U2" s="626"/>
+      <c r="V2" s="626"/>
+      <c r="W2" s="626"/>
+      <c r="X2" s="631"/>
+      <c r="Y2" s="625" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="633"/>
-      <c r="AA2" s="633"/>
-      <c r="AB2" s="634"/>
-      <c r="AC2" s="626" t="s">
+      <c r="Z2" s="626"/>
+      <c r="AA2" s="626"/>
+      <c r="AB2" s="631"/>
+      <c r="AC2" s="640" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="627"/>
-      <c r="AE2" s="627"/>
-      <c r="AF2" s="642"/>
-      <c r="AG2" s="626" t="s">
+      <c r="AD2" s="641"/>
+      <c r="AE2" s="641"/>
+      <c r="AF2" s="650"/>
+      <c r="AG2" s="640" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="627"/>
-      <c r="AI2" s="627"/>
+      <c r="AH2" s="641"/>
+      <c r="AI2" s="641"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="621"/>
-      <c r="B3" s="621"/>
-      <c r="C3" s="621"/>
-      <c r="D3" s="623"/>
-      <c r="E3" s="623"/>
-      <c r="F3" s="623"/>
-      <c r="G3" s="628"/>
-      <c r="H3" s="629"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="635"/>
-      <c r="K3" s="650" t="s">
+      <c r="A3" s="657"/>
+      <c r="B3" s="657"/>
+      <c r="C3" s="657"/>
+      <c r="D3" s="659"/>
+      <c r="E3" s="659"/>
+      <c r="F3" s="659"/>
+      <c r="G3" s="627"/>
+      <c r="H3" s="628"/>
+      <c r="I3" s="628"/>
+      <c r="J3" s="632"/>
+      <c r="K3" s="619" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="650"/>
-      <c r="M3" s="628"/>
-      <c r="N3" s="629"/>
-      <c r="O3" s="635"/>
-      <c r="P3" s="628"/>
-      <c r="Q3" s="635"/>
-      <c r="R3" s="628"/>
-      <c r="S3" s="629"/>
-      <c r="T3" s="628"/>
-      <c r="U3" s="629"/>
-      <c r="V3" s="629"/>
-      <c r="W3" s="629"/>
-      <c r="X3" s="635"/>
-      <c r="Y3" s="628"/>
-      <c r="Z3" s="629"/>
-      <c r="AA3" s="629"/>
-      <c r="AB3" s="635"/>
-      <c r="AC3" s="628"/>
-      <c r="AD3" s="629"/>
-      <c r="AE3" s="629"/>
-      <c r="AF3" s="635"/>
-      <c r="AG3" s="628"/>
-      <c r="AH3" s="629"/>
-      <c r="AI3" s="629"/>
+      <c r="L3" s="619"/>
+      <c r="M3" s="627"/>
+      <c r="N3" s="628"/>
+      <c r="O3" s="632"/>
+      <c r="P3" s="627"/>
+      <c r="Q3" s="632"/>
+      <c r="R3" s="627"/>
+      <c r="S3" s="628"/>
+      <c r="T3" s="627"/>
+      <c r="U3" s="628"/>
+      <c r="V3" s="628"/>
+      <c r="W3" s="628"/>
+      <c r="X3" s="632"/>
+      <c r="Y3" s="627"/>
+      <c r="Z3" s="628"/>
+      <c r="AA3" s="628"/>
+      <c r="AB3" s="632"/>
+      <c r="AC3" s="627"/>
+      <c r="AD3" s="628"/>
+      <c r="AE3" s="628"/>
+      <c r="AF3" s="632"/>
+      <c r="AG3" s="627"/>
+      <c r="AH3" s="628"/>
+      <c r="AI3" s="628"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="621"/>
-      <c r="B4" s="621"/>
-      <c r="C4" s="621"/>
-      <c r="D4" s="624" t="s">
+      <c r="A4" s="657"/>
+      <c r="B4" s="657"/>
+      <c r="C4" s="657"/>
+      <c r="D4" s="638" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="624" t="s">
+      <c r="E4" s="638" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="624" t="s">
+      <c r="F4" s="638" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="648" t="s">
+      <c r="G4" s="636" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="648" t="s">
+      <c r="H4" s="636" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="648" t="s">
+      <c r="I4" s="636" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="648" t="s">
+      <c r="J4" s="636" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="651" t="s">
+      <c r="K4" s="620" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="651" t="s">
+      <c r="L4" s="620" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="653" t="s">
+      <c r="M4" s="622" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="653" t="s">
+      <c r="N4" s="622" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="657" t="s">
+      <c r="O4" s="633" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="658" t="s">
+      <c r="P4" s="634" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="658" t="s">
+      <c r="Q4" s="634" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="655" t="s">
+      <c r="R4" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="655" t="s">
+      <c r="S4" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="630" t="s">
+      <c r="T4" s="642" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="646" t="s">
+      <c r="U4" s="653" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="647"/>
-      <c r="W4" s="645" t="s">
+      <c r="V4" s="654"/>
+      <c r="W4" s="624" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="645" t="s">
+      <c r="X4" s="624" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="636" t="s">
+      <c r="Y4" s="644" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="636" t="s">
+      <c r="Z4" s="644" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="640" t="s">
+      <c r="AA4" s="648" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="641"/>
-      <c r="AC4" s="638" t="s">
+      <c r="AB4" s="649"/>
+      <c r="AC4" s="646" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="638" t="s">
+      <c r="AD4" s="646" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="643" t="s">
+      <c r="AE4" s="651" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="644"/>
-      <c r="AG4" s="624" t="s">
+      <c r="AF4" s="652"/>
+      <c r="AG4" s="638" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="624" t="s">
+      <c r="AH4" s="638" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="624" t="s">
+      <c r="AI4" s="638" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="622"/>
-      <c r="B5" s="622"/>
-      <c r="C5" s="622"/>
-      <c r="D5" s="625"/>
-      <c r="E5" s="625"/>
-      <c r="F5" s="625"/>
-      <c r="G5" s="649"/>
-      <c r="H5" s="649"/>
-      <c r="I5" s="649"/>
-      <c r="J5" s="649"/>
-      <c r="K5" s="652"/>
-      <c r="L5" s="652"/>
-      <c r="M5" s="654"/>
-      <c r="N5" s="654"/>
-      <c r="O5" s="654"/>
-      <c r="P5" s="659"/>
-      <c r="Q5" s="659"/>
-      <c r="R5" s="656"/>
-      <c r="S5" s="656"/>
-      <c r="T5" s="631"/>
+      <c r="A5" s="658"/>
+      <c r="B5" s="658"/>
+      <c r="C5" s="658"/>
+      <c r="D5" s="639"/>
+      <c r="E5" s="639"/>
+      <c r="F5" s="639"/>
+      <c r="G5" s="637"/>
+      <c r="H5" s="637"/>
+      <c r="I5" s="637"/>
+      <c r="J5" s="637"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="621"/>
+      <c r="M5" s="623"/>
+      <c r="N5" s="623"/>
+      <c r="O5" s="623"/>
+      <c r="P5" s="635"/>
+      <c r="Q5" s="635"/>
+      <c r="R5" s="630"/>
+      <c r="S5" s="630"/>
+      <c r="T5" s="643"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="645"/>
-      <c r="X5" s="645"/>
-      <c r="Y5" s="637"/>
-      <c r="Z5" s="637"/>
+      <c r="W5" s="624"/>
+      <c r="X5" s="624"/>
+      <c r="Y5" s="645"/>
+      <c r="Z5" s="645"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="639"/>
-      <c r="AD5" s="639"/>
+      <c r="AC5" s="647"/>
+      <c r="AD5" s="647"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="625"/>
-      <c r="AH5" s="625"/>
-      <c r="AI5" s="625"/>
+      <c r="AG5" s="639"/>
+      <c r="AH5" s="639"/>
+      <c r="AI5" s="639"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -55419,26 +55441,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -55455,14 +55465,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56748,10 +56770,10 @@
       <c r="M35" s="460"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="664" t="s">
+      <c r="A36" s="662" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="665"/>
+      <c r="B36" s="663"/>
       <c r="C36" s="464"/>
       <c r="D36" s="465"/>
       <c r="E36" s="466"/>
@@ -56777,7 +56799,7 @@
       <c r="D37" s="464" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="662" t="s">
+      <c r="E37" s="664" t="s">
         <v>1621</v>
       </c>
       <c r="F37" s="467"/>
@@ -56802,7 +56824,7 @@
       <c r="D38" s="464" t="s">
         <v>1622</v>
       </c>
-      <c r="E38" s="663"/>
+      <c r="E38" s="665"/>
       <c r="F38" s="467"/>
       <c r="G38" s="467"/>
       <c r="H38" s="467"/>
@@ -57606,16 +57628,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58843,8 +58865,8 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -59933,26 +59955,26 @@
       <c r="J51" s="412"/>
       <c r="K51" s="408"/>
     </row>
-    <row r="52" spans="1:11" s="191" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="418" t="s">
+    <row r="52" spans="1:11" s="703" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="697" t="s">
         <v>1537</v>
       </c>
-      <c r="B52" s="419" t="s">
+      <c r="B52" s="698" t="s">
         <v>1335</v>
       </c>
-      <c r="C52" s="410" t="s">
+      <c r="C52" s="699" t="s">
         <v>1580</v>
       </c>
-      <c r="D52" s="420" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E52" s="421"/>
-      <c r="F52" s="421"/>
-      <c r="G52" s="421"/>
-      <c r="H52" s="421"/>
-      <c r="I52" s="421"/>
-      <c r="J52" s="412"/>
-      <c r="K52" s="408"/>
+      <c r="D52" s="700" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E52" s="701"/>
+      <c r="F52" s="701"/>
+      <c r="G52" s="701"/>
+      <c r="H52" s="701"/>
+      <c r="I52" s="701"/>
+      <c r="J52" s="702"/>
+      <c r="K52" s="702"/>
     </row>
     <row r="53" spans="1:11" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="418" t="s">
@@ -60133,7 +60155,7 @@
         <v>1580</v>
       </c>
       <c r="D61" s="420" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E61" s="421"/>
       <c r="F61" s="421"/>
@@ -60322,7 +60344,7 @@
         <v>1580</v>
       </c>
       <c r="D70" s="420" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E70" s="421"/>
       <c r="F70" s="421"/>
@@ -60595,7 +60617,7 @@
         <v>1580</v>
       </c>
       <c r="D83" s="420" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E83" s="421"/>
       <c r="F83" s="421"/>
@@ -60616,7 +60638,7 @@
         <v>1580</v>
       </c>
       <c r="D84" s="420" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E84" s="421"/>
       <c r="F84" s="421"/>
@@ -60637,7 +60659,7 @@
         <v>1580</v>
       </c>
       <c r="D85" s="420" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E85" s="421"/>
       <c r="F85" s="421"/>
@@ -60763,7 +60785,7 @@
         <v>1580</v>
       </c>
       <c r="D91" s="420" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E91" s="411"/>
       <c r="F91" s="411"/>

--- a/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_IPE_EN.xlsx
+++ b/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_IPE_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9_IOS\Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hamburger " sheetId="32" r:id="rId1"/>
@@ -25368,7 +25373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="m/d/yy"/>
@@ -28554,73 +28559,39 @@
     <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -28703,6 +28674,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -28715,24 +28702,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -28746,29 +28827,11 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -28797,55 +28860,37 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28854,43 +28899,40 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="20" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -28901,7 +28943,7 @@
     <xf numFmtId="0" fontId="22" fillId="28" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28922,9 +28964,6 @@
     <xf numFmtId="0" fontId="67" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -28937,40 +28976,6 @@
     <xf numFmtId="0" fontId="78" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29037,7 +29042,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29081,7 +29086,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29125,7 +29130,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29169,7 +29174,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29213,7 +29218,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29257,7 +29262,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29301,7 +29306,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29345,7 +29350,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29389,7 +29394,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29433,7 +29438,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29477,7 +29482,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29521,7 +29526,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29565,7 +29570,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29609,7 +29614,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29653,7 +29658,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29849,7 +29854,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33313,7 +33318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33348,7 +33353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33606,22 +33611,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="709" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="707" t="s">
+    <row r="2" spans="1:11" s="585" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="597" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="707"/>
-      <c r="C2" s="708"/>
-      <c r="D2" s="708"/>
-      <c r="E2" s="708"/>
-      <c r="F2" s="708"/>
-      <c r="G2" s="708"/>
-      <c r="H2" s="708"/>
-      <c r="I2" s="708"/>
-      <c r="J2" s="708"/>
-      <c r="K2" s="708"/>
-    </row>
-    <row r="3" spans="1:11" s="710" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="597"/>
+      <c r="C2" s="584"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="584"/>
+      <c r="F2" s="584"/>
+      <c r="G2" s="584"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="584"/>
+      <c r="J2" s="584"/>
+      <c r="K2" s="584"/>
+    </row>
+    <row r="3" spans="1:11" s="586" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="323" t="s">
         <v>2100</v>
       </c>
@@ -33642,7 +33647,7 @@
       <c r="J3" s="474"/>
       <c r="K3" s="474"/>
     </row>
-    <row r="4" spans="1:11" s="710" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="586" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="323" t="s">
         <v>2103</v>
       </c>
@@ -33663,7 +33668,7 @@
       <c r="J4" s="474"/>
       <c r="K4" s="474"/>
     </row>
-    <row r="5" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="323" t="s">
         <v>2106</v>
       </c>
@@ -33684,7 +33689,7 @@
       <c r="J5" s="474"/>
       <c r="K5" s="474"/>
     </row>
-    <row r="6" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="323" t="s">
         <v>2109</v>
       </c>
@@ -33705,7 +33710,7 @@
       <c r="J6" s="474"/>
       <c r="K6" s="474"/>
     </row>
-    <row r="7" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="323" t="s">
         <v>2103</v>
       </c>
@@ -33726,7 +33731,7 @@
       <c r="J7" s="474"/>
       <c r="K7" s="474"/>
     </row>
-    <row r="8" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="323" t="s">
         <v>2114</v>
       </c>
@@ -33747,7 +33752,7 @@
       <c r="J8" s="474"/>
       <c r="K8" s="474"/>
     </row>
-    <row r="9" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="323" t="s">
         <v>2117</v>
       </c>
@@ -33768,7 +33773,7 @@
       <c r="J9" s="474"/>
       <c r="K9" s="474"/>
     </row>
-    <row r="10" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="323" t="s">
         <v>2120</v>
       </c>
@@ -33789,7 +33794,7 @@
       <c r="J10" s="474"/>
       <c r="K10" s="474"/>
     </row>
-    <row r="11" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="323" t="s">
         <v>2123</v>
       </c>
@@ -33810,7 +33815,7 @@
       <c r="J11" s="474"/>
       <c r="K11" s="474"/>
     </row>
-    <row r="12" spans="1:11" s="710" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="323" t="s">
         <v>2126</v>
       </c>
@@ -33820,7 +33825,7 @@
       <c r="C12" s="470" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="711" t="s">
+      <c r="D12" s="587" t="s">
         <v>2128</v>
       </c>
       <c r="E12" s="474"/>
@@ -33831,22 +33836,22 @@
       <c r="J12" s="474"/>
       <c r="K12" s="474"/>
     </row>
-    <row r="13" spans="1:11" s="714" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="707" t="s">
+    <row r="13" spans="1:11" s="590" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="597" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="707"/>
-      <c r="C13" s="712"/>
-      <c r="D13" s="712"/>
-      <c r="E13" s="712"/>
-      <c r="F13" s="712"/>
-      <c r="G13" s="712"/>
-      <c r="H13" s="712"/>
-      <c r="I13" s="712"/>
-      <c r="J13" s="713"/>
-      <c r="K13" s="713"/>
-    </row>
-    <row r="14" spans="1:11" s="710" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="597"/>
+      <c r="C13" s="588"/>
+      <c r="D13" s="588"/>
+      <c r="E13" s="588"/>
+      <c r="F13" s="588"/>
+      <c r="G13" s="588"/>
+      <c r="H13" s="588"/>
+      <c r="I13" s="588"/>
+      <c r="J13" s="589"/>
+      <c r="K13" s="589"/>
+    </row>
+    <row r="14" spans="1:11" s="586" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="323" t="s">
         <v>2129</v>
       </c>
@@ -33867,7 +33872,7 @@
       <c r="J14" s="474"/>
       <c r="K14" s="474"/>
     </row>
-    <row r="15" spans="1:11" s="710" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="586" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="323" t="s">
         <v>2132</v>
       </c>
@@ -33888,7 +33893,7 @@
       <c r="J15" s="474"/>
       <c r="K15" s="474"/>
     </row>
-    <row r="16" spans="1:11" s="710" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="586" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="323" t="s">
         <v>2135</v>
       </c>
@@ -33909,121 +33914,121 @@
       <c r="J16" s="474"/>
       <c r="K16" s="474"/>
     </row>
-    <row r="17" spans="1:11" s="714" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="707" t="s">
+    <row r="17" spans="1:11" s="590" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="597" t="s">
         <v>2138</v>
       </c>
-      <c r="B17" s="707"/>
-      <c r="C17" s="712"/>
-      <c r="D17" s="712"/>
-      <c r="E17" s="712"/>
-      <c r="F17" s="712"/>
-      <c r="G17" s="712"/>
-      <c r="H17" s="712"/>
-      <c r="I17" s="712"/>
-      <c r="J17" s="713"/>
-      <c r="K17" s="713"/>
-    </row>
-    <row r="18" spans="1:11" s="718" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="715" t="s">
+      <c r="B17" s="597"/>
+      <c r="C17" s="588"/>
+      <c r="D17" s="588"/>
+      <c r="E17" s="588"/>
+      <c r="F17" s="588"/>
+      <c r="G17" s="588"/>
+      <c r="H17" s="588"/>
+      <c r="I17" s="588"/>
+      <c r="J17" s="589"/>
+      <c r="K17" s="589"/>
+    </row>
+    <row r="18" spans="1:11" s="594" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="591" t="s">
         <v>2139</v>
       </c>
-      <c r="B18" s="716" t="s">
+      <c r="B18" s="592" t="s">
         <v>2140</v>
       </c>
-      <c r="C18" s="716" t="s">
+      <c r="C18" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D18" s="716" t="s">
+      <c r="D18" s="592" t="s">
         <v>2137</v>
       </c>
-      <c r="E18" s="717"/>
-      <c r="F18" s="717"/>
-      <c r="G18" s="717"/>
-      <c r="H18" s="717"/>
-      <c r="I18" s="717"/>
-      <c r="J18" s="717"/>
-      <c r="K18" s="717"/>
-    </row>
-    <row r="19" spans="1:11" s="719" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="715" t="s">
+      <c r="E18" s="593"/>
+      <c r="F18" s="593"/>
+      <c r="G18" s="593"/>
+      <c r="H18" s="593"/>
+      <c r="I18" s="593"/>
+      <c r="J18" s="593"/>
+      <c r="K18" s="593"/>
+    </row>
+    <row r="19" spans="1:11" s="595" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="591" t="s">
         <v>2142</v>
       </c>
-      <c r="B19" s="716" t="s">
+      <c r="B19" s="592" t="s">
         <v>2143</v>
       </c>
-      <c r="C19" s="716" t="s">
+      <c r="C19" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D19" s="716" t="s">
+      <c r="D19" s="592" t="s">
         <v>2144</v>
       </c>
-      <c r="E19" s="717"/>
-      <c r="F19" s="717"/>
-      <c r="G19" s="717"/>
-      <c r="H19" s="717"/>
-      <c r="I19" s="717"/>
-      <c r="J19" s="717"/>
-      <c r="K19" s="717"/>
-    </row>
-    <row r="20" spans="1:11" s="718" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="715" t="s">
+      <c r="E19" s="593"/>
+      <c r="F19" s="593"/>
+      <c r="G19" s="593"/>
+      <c r="H19" s="593"/>
+      <c r="I19" s="593"/>
+      <c r="J19" s="593"/>
+      <c r="K19" s="593"/>
+    </row>
+    <row r="20" spans="1:11" s="594" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="591" t="s">
         <v>2145</v>
       </c>
-      <c r="B20" s="716" t="s">
+      <c r="B20" s="592" t="s">
         <v>2146</v>
       </c>
-      <c r="C20" s="716" t="s">
+      <c r="C20" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D20" s="716" t="s">
+      <c r="D20" s="592" t="s">
         <v>2134</v>
       </c>
-      <c r="E20" s="717"/>
-      <c r="F20" s="717"/>
-      <c r="G20" s="717"/>
-      <c r="H20" s="717"/>
-      <c r="I20" s="717"/>
-      <c r="J20" s="717"/>
-      <c r="K20" s="717"/>
-    </row>
-    <row r="21" spans="1:11" s="720" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="720" t="s">
+      <c r="E20" s="593"/>
+      <c r="F20" s="593"/>
+      <c r="G20" s="593"/>
+      <c r="H20" s="593"/>
+      <c r="I20" s="593"/>
+      <c r="J20" s="593"/>
+      <c r="K20" s="593"/>
+    </row>
+    <row r="21" spans="1:11" s="596" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="596" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="719" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="715" t="s">
+    <row r="22" spans="1:11" s="595" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="591" t="s">
         <v>2148</v>
       </c>
-      <c r="B22" s="716" t="s">
+      <c r="B22" s="592" t="s">
         <v>2149</v>
       </c>
-      <c r="C22" s="716" t="s">
+      <c r="C22" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D22" s="716" t="s">
+      <c r="D22" s="592" t="s">
         <v>2150</v>
       </c>
-      <c r="E22" s="717"/>
-      <c r="F22" s="717"/>
-      <c r="G22" s="717"/>
-      <c r="H22" s="717"/>
-      <c r="I22" s="717"/>
-      <c r="J22" s="717"/>
-      <c r="K22" s="717"/>
-    </row>
-    <row r="23" spans="1:11" s="719" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="715" t="s">
+      <c r="E22" s="593"/>
+      <c r="F22" s="593"/>
+      <c r="G22" s="593"/>
+      <c r="H22" s="593"/>
+      <c r="I22" s="593"/>
+      <c r="J22" s="593"/>
+      <c r="K22" s="593"/>
+    </row>
+    <row r="23" spans="1:11" s="595" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="591" t="s">
         <v>2151</v>
       </c>
-      <c r="B23" s="716" t="s">
+      <c r="B23" s="592" t="s">
         <v>2152</v>
       </c>
-      <c r="C23" s="716" t="s">
+      <c r="C23" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D23" s="716" t="s">
+      <c r="D23" s="592" t="s">
         <v>2153</v>
       </c>
     </row>
@@ -34044,7 +34049,7 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -34093,10 +34098,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="676" t="s">
+      <c r="A2" s="690" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="676"/>
+      <c r="B2" s="690"/>
       <c r="C2" s="291"/>
       <c r="D2" s="291"/>
       <c r="E2" s="291"/>
@@ -34318,10 +34323,10 @@
       <c r="K12" s="299"/>
     </row>
     <row r="13" spans="1:11" s="67" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="676" t="s">
+      <c r="A13" s="690" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="676"/>
+      <c r="B13" s="690"/>
       <c r="C13" s="291"/>
       <c r="D13" s="291"/>
       <c r="E13" s="291"/>
@@ -34584,121 +34589,121 @@
       <c r="J25" s="298"/>
       <c r="K25" s="253"/>
     </row>
-    <row r="26" spans="1:11" s="714" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="707" t="s">
+    <row r="26" spans="1:11" s="590" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="597" t="s">
         <v>2138</v>
       </c>
-      <c r="B26" s="707"/>
-      <c r="C26" s="712"/>
-      <c r="D26" s="712"/>
-      <c r="E26" s="712"/>
-      <c r="F26" s="712"/>
-      <c r="G26" s="712"/>
-      <c r="H26" s="712"/>
-      <c r="I26" s="712"/>
-      <c r="J26" s="713"/>
-      <c r="K26" s="713"/>
-    </row>
-    <row r="27" spans="1:11" s="718" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="715" t="s">
+      <c r="B26" s="597"/>
+      <c r="C26" s="588"/>
+      <c r="D26" s="588"/>
+      <c r="E26" s="588"/>
+      <c r="F26" s="588"/>
+      <c r="G26" s="588"/>
+      <c r="H26" s="588"/>
+      <c r="I26" s="588"/>
+      <c r="J26" s="589"/>
+      <c r="K26" s="589"/>
+    </row>
+    <row r="27" spans="1:11" s="594" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="591" t="s">
         <v>2154</v>
       </c>
-      <c r="B27" s="716" t="s">
+      <c r="B27" s="592" t="s">
         <v>2140</v>
       </c>
-      <c r="C27" s="716" t="s">
+      <c r="C27" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D27" s="716" t="s">
+      <c r="D27" s="592" t="s">
         <v>2137</v>
       </c>
-      <c r="E27" s="717"/>
-      <c r="F27" s="717"/>
-      <c r="G27" s="717"/>
-      <c r="H27" s="717"/>
-      <c r="I27" s="717"/>
-      <c r="J27" s="717"/>
-      <c r="K27" s="717"/>
-    </row>
-    <row r="28" spans="1:11" s="719" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="715" t="s">
+      <c r="E27" s="593"/>
+      <c r="F27" s="593"/>
+      <c r="G27" s="593"/>
+      <c r="H27" s="593"/>
+      <c r="I27" s="593"/>
+      <c r="J27" s="593"/>
+      <c r="K27" s="593"/>
+    </row>
+    <row r="28" spans="1:11" s="595" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="591" t="s">
         <v>2155</v>
       </c>
-      <c r="B28" s="716" t="s">
+      <c r="B28" s="592" t="s">
         <v>2143</v>
       </c>
-      <c r="C28" s="716" t="s">
+      <c r="C28" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D28" s="716" t="s">
+      <c r="D28" s="592" t="s">
         <v>2144</v>
       </c>
-      <c r="E28" s="717"/>
-      <c r="F28" s="717"/>
-      <c r="G28" s="717"/>
-      <c r="H28" s="717"/>
-      <c r="I28" s="717"/>
-      <c r="J28" s="717"/>
-      <c r="K28" s="717"/>
-    </row>
-    <row r="29" spans="1:11" s="718" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="715" t="s">
+      <c r="E28" s="593"/>
+      <c r="F28" s="593"/>
+      <c r="G28" s="593"/>
+      <c r="H28" s="593"/>
+      <c r="I28" s="593"/>
+      <c r="J28" s="593"/>
+      <c r="K28" s="593"/>
+    </row>
+    <row r="29" spans="1:11" s="594" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="591" t="s">
         <v>2156</v>
       </c>
-      <c r="B29" s="716" t="s">
+      <c r="B29" s="592" t="s">
         <v>2146</v>
       </c>
-      <c r="C29" s="716" t="s">
+      <c r="C29" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D29" s="716" t="s">
+      <c r="D29" s="592" t="s">
         <v>2134</v>
       </c>
-      <c r="E29" s="717"/>
-      <c r="F29" s="717"/>
-      <c r="G29" s="717"/>
-      <c r="H29" s="717"/>
-      <c r="I29" s="717"/>
-      <c r="J29" s="717"/>
-      <c r="K29" s="717"/>
-    </row>
-    <row r="30" spans="1:11" s="720" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="720" t="s">
+      <c r="E29" s="593"/>
+      <c r="F29" s="593"/>
+      <c r="G29" s="593"/>
+      <c r="H29" s="593"/>
+      <c r="I29" s="593"/>
+      <c r="J29" s="593"/>
+      <c r="K29" s="593"/>
+    </row>
+    <row r="30" spans="1:11" s="596" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="596" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="719" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="715" t="s">
+    <row r="31" spans="1:11" s="595" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="591" t="s">
         <v>2157</v>
       </c>
-      <c r="B31" s="716" t="s">
+      <c r="B31" s="592" t="s">
         <v>2149</v>
       </c>
-      <c r="C31" s="716" t="s">
+      <c r="C31" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D31" s="716" t="s">
+      <c r="D31" s="592" t="s">
         <v>2150</v>
       </c>
-      <c r="E31" s="717"/>
-      <c r="F31" s="717"/>
-      <c r="G31" s="717"/>
-      <c r="H31" s="717"/>
-      <c r="I31" s="717"/>
-      <c r="J31" s="717"/>
-      <c r="K31" s="717"/>
-    </row>
-    <row r="32" spans="1:11" s="719" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="715" t="s">
+      <c r="E31" s="593"/>
+      <c r="F31" s="593"/>
+      <c r="G31" s="593"/>
+      <c r="H31" s="593"/>
+      <c r="I31" s="593"/>
+      <c r="J31" s="593"/>
+      <c r="K31" s="593"/>
+    </row>
+    <row r="32" spans="1:11" s="595" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="591" t="s">
         <v>2158</v>
       </c>
-      <c r="B32" s="716" t="s">
+      <c r="B32" s="592" t="s">
         <v>2152</v>
       </c>
-      <c r="C32" s="716" t="s">
+      <c r="C32" s="592" t="s">
         <v>2141</v>
       </c>
-      <c r="D32" s="716" t="s">
+      <c r="D32" s="592" t="s">
         <v>2153</v>
       </c>
     </row>
@@ -34744,98 +34749,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="689" t="s">
+      <c r="A1" s="700" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="677" t="s">
+      <c r="B1" s="698" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="677" t="s">
+      <c r="C1" s="698" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="677" t="s">
+      <c r="D1" s="698" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="677" t="s">
+      <c r="E1" s="698" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="677" t="s">
+      <c r="F1" s="698" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="677" t="s">
+      <c r="G1" s="698" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="677" t="s">
+      <c r="H1" s="698" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="677" t="s">
+      <c r="I1" s="698" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="677" t="s">
+      <c r="J1" s="698" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="677" t="s">
+      <c r="K1" s="698" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="677" t="s">
+      <c r="L1" s="698" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="686" t="s">
+      <c r="M1" s="703" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="687" t="s">
+      <c r="N1" s="691" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="678"/>
-      <c r="B2" s="678"/>
-      <c r="C2" s="678"/>
-      <c r="D2" s="678"/>
-      <c r="E2" s="678"/>
-      <c r="F2" s="678"/>
-      <c r="G2" s="678"/>
-      <c r="H2" s="678"/>
-      <c r="I2" s="678"/>
-      <c r="J2" s="678"/>
-      <c r="K2" s="678"/>
-      <c r="L2" s="678"/>
-      <c r="M2" s="678"/>
-      <c r="N2" s="681"/>
+      <c r="A2" s="699"/>
+      <c r="B2" s="699"/>
+      <c r="C2" s="699"/>
+      <c r="D2" s="699"/>
+      <c r="E2" s="699"/>
+      <c r="F2" s="699"/>
+      <c r="G2" s="699"/>
+      <c r="H2" s="699"/>
+      <c r="I2" s="699"/>
+      <c r="J2" s="699"/>
+      <c r="K2" s="699"/>
+      <c r="L2" s="699"/>
+      <c r="M2" s="699"/>
+      <c r="N2" s="692"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="683" t="s">
+      <c r="A3" s="693" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="684"/>
-      <c r="C3" s="684"/>
-      <c r="D3" s="684"/>
-      <c r="E3" s="684"/>
-      <c r="F3" s="684"/>
-      <c r="G3" s="684"/>
-      <c r="H3" s="684"/>
-      <c r="I3" s="684"/>
-      <c r="J3" s="684"/>
-      <c r="K3" s="684"/>
-      <c r="L3" s="685"/>
+      <c r="B3" s="694"/>
+      <c r="C3" s="694"/>
+      <c r="D3" s="694"/>
+      <c r="E3" s="694"/>
+      <c r="F3" s="694"/>
+      <c r="G3" s="694"/>
+      <c r="H3" s="694"/>
+      <c r="I3" s="694"/>
+      <c r="J3" s="694"/>
+      <c r="K3" s="694"/>
+      <c r="L3" s="695"/>
       <c r="M3" s="82"/>
       <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="688" t="s">
+      <c r="A4" s="696" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="684"/>
-      <c r="C4" s="684"/>
-      <c r="D4" s="684"/>
-      <c r="E4" s="684"/>
-      <c r="F4" s="684"/>
-      <c r="G4" s="684"/>
-      <c r="H4" s="684"/>
-      <c r="I4" s="684"/>
-      <c r="J4" s="684"/>
-      <c r="K4" s="684"/>
-      <c r="L4" s="685"/>
+      <c r="B4" s="694"/>
+      <c r="C4" s="694"/>
+      <c r="D4" s="694"/>
+      <c r="E4" s="694"/>
+      <c r="F4" s="694"/>
+      <c r="G4" s="694"/>
+      <c r="H4" s="694"/>
+      <c r="I4" s="694"/>
+      <c r="J4" s="694"/>
+      <c r="K4" s="694"/>
+      <c r="L4" s="695"/>
       <c r="M4" s="84"/>
       <c r="N4" s="85"/>
     </row>
@@ -35009,20 +35014,20 @@
       <c r="N10" s="582"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="683" t="s">
+      <c r="A11" s="693" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="680"/>
-      <c r="C11" s="680"/>
-      <c r="D11" s="684"/>
-      <c r="E11" s="680"/>
-      <c r="F11" s="684"/>
-      <c r="G11" s="684"/>
-      <c r="H11" s="680"/>
-      <c r="I11" s="680"/>
-      <c r="J11" s="680"/>
-      <c r="K11" s="680"/>
-      <c r="L11" s="681"/>
+      <c r="B11" s="697"/>
+      <c r="C11" s="697"/>
+      <c r="D11" s="694"/>
+      <c r="E11" s="697"/>
+      <c r="F11" s="694"/>
+      <c r="G11" s="694"/>
+      <c r="H11" s="697"/>
+      <c r="I11" s="697"/>
+      <c r="J11" s="697"/>
+      <c r="K11" s="697"/>
+      <c r="L11" s="692"/>
       <c r="M11" s="82"/>
       <c r="N11" s="82"/>
     </row>
@@ -35083,20 +35088,20 @@
       <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="683" t="s">
+      <c r="A14" s="693" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="684"/>
-      <c r="C14" s="684"/>
-      <c r="D14" s="684"/>
-      <c r="E14" s="684"/>
-      <c r="F14" s="684"/>
-      <c r="G14" s="684"/>
-      <c r="H14" s="684"/>
-      <c r="I14" s="684"/>
-      <c r="J14" s="684"/>
-      <c r="K14" s="684"/>
-      <c r="L14" s="685"/>
+      <c r="B14" s="694"/>
+      <c r="C14" s="694"/>
+      <c r="D14" s="694"/>
+      <c r="E14" s="694"/>
+      <c r="F14" s="694"/>
+      <c r="G14" s="694"/>
+      <c r="H14" s="694"/>
+      <c r="I14" s="694"/>
+      <c r="J14" s="694"/>
+      <c r="K14" s="694"/>
+      <c r="L14" s="695"/>
       <c r="M14" s="116"/>
       <c r="N14" s="117"/>
     </row>
@@ -35157,20 +35162,20 @@
       <c r="N16" s="125"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="679" t="s">
+      <c r="A17" s="701" t="s">
         <v>382</v>
       </c>
-      <c r="B17" s="680"/>
-      <c r="C17" s="680"/>
-      <c r="D17" s="680"/>
-      <c r="E17" s="680"/>
-      <c r="F17" s="680"/>
-      <c r="G17" s="680"/>
-      <c r="H17" s="680"/>
-      <c r="I17" s="680"/>
-      <c r="J17" s="680"/>
-      <c r="K17" s="680"/>
-      <c r="L17" s="681"/>
+      <c r="B17" s="697"/>
+      <c r="C17" s="697"/>
+      <c r="D17" s="697"/>
+      <c r="E17" s="697"/>
+      <c r="F17" s="697"/>
+      <c r="G17" s="697"/>
+      <c r="H17" s="697"/>
+      <c r="I17" s="697"/>
+      <c r="J17" s="697"/>
+      <c r="K17" s="697"/>
+      <c r="L17" s="692"/>
       <c r="M17" s="126"/>
       <c r="N17" s="127"/>
     </row>
@@ -35487,20 +35492,20 @@
       <c r="N30" s="164"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="682" t="s">
+      <c r="A31" s="702" t="s">
         <v>419</v>
       </c>
-      <c r="B31" s="680"/>
-      <c r="C31" s="680"/>
-      <c r="D31" s="680"/>
-      <c r="E31" s="680"/>
-      <c r="F31" s="680"/>
-      <c r="G31" s="680"/>
-      <c r="H31" s="680"/>
-      <c r="I31" s="680"/>
-      <c r="J31" s="680"/>
-      <c r="K31" s="680"/>
-      <c r="L31" s="681"/>
+      <c r="B31" s="697"/>
+      <c r="C31" s="697"/>
+      <c r="D31" s="697"/>
+      <c r="E31" s="697"/>
+      <c r="F31" s="697"/>
+      <c r="G31" s="697"/>
+      <c r="H31" s="697"/>
+      <c r="I31" s="697"/>
+      <c r="J31" s="697"/>
+      <c r="K31" s="697"/>
+      <c r="L31" s="692"/>
       <c r="M31" s="165"/>
       <c r="N31" s="165"/>
     </row>
@@ -49964,6 +49969,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -49980,10 +49989,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50014,56 +50019,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="696" t="s">
+      <c r="A1" s="711" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="698" t="s">
+      <c r="B1" s="713" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="698" t="s">
+      <c r="C1" s="713" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="699" t="s">
+      <c r="D1" s="714" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="699" t="s">
+      <c r="E1" s="714" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="698" t="s">
+      <c r="F1" s="713" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="698" t="s">
+      <c r="G1" s="713" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="698" t="s">
+      <c r="H1" s="713" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="698" t="s">
+      <c r="I1" s="713" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="698" t="s">
+      <c r="J1" s="713" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="701" t="s">
+      <c r="K1" s="716" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="694" t="s">
+      <c r="L1" s="709" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="697"/>
-      <c r="B2" s="697"/>
-      <c r="C2" s="697"/>
-      <c r="D2" s="700"/>
-      <c r="E2" s="700"/>
-      <c r="F2" s="697"/>
-      <c r="G2" s="697"/>
-      <c r="H2" s="697"/>
-      <c r="I2" s="697"/>
-      <c r="J2" s="697"/>
-      <c r="K2" s="697"/>
-      <c r="L2" s="695"/>
+      <c r="A2" s="712"/>
+      <c r="B2" s="712"/>
+      <c r="C2" s="712"/>
+      <c r="D2" s="715"/>
+      <c r="E2" s="715"/>
+      <c r="F2" s="712"/>
+      <c r="G2" s="712"/>
+      <c r="H2" s="712"/>
+      <c r="I2" s="712"/>
+      <c r="J2" s="712"/>
+      <c r="K2" s="712"/>
+      <c r="L2" s="710"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="186" t="s">
@@ -50586,20 +50591,20 @@
       <c r="L25" s="209"/>
     </row>
     <row r="26" spans="1:12" s="226" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="690" t="s">
+      <c r="A26" s="705" t="s">
         <v>516</v>
       </c>
-      <c r="B26" s="691"/>
-      <c r="C26" s="691"/>
-      <c r="D26" s="691"/>
-      <c r="E26" s="691"/>
-      <c r="F26" s="691"/>
-      <c r="G26" s="691"/>
-      <c r="H26" s="691"/>
-      <c r="I26" s="691"/>
-      <c r="J26" s="691"/>
-      <c r="K26" s="691"/>
-      <c r="L26" s="692"/>
+      <c r="B26" s="706"/>
+      <c r="C26" s="706"/>
+      <c r="D26" s="706"/>
+      <c r="E26" s="706"/>
+      <c r="F26" s="706"/>
+      <c r="G26" s="706"/>
+      <c r="H26" s="706"/>
+      <c r="I26" s="706"/>
+      <c r="J26" s="706"/>
+      <c r="K26" s="706"/>
+      <c r="L26" s="707"/>
     </row>
     <row r="27" spans="1:12" s="226" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="77" t="s">
@@ -51242,20 +51247,20 @@
       <c r="L54" s="231"/>
     </row>
     <row r="55" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="693" t="s">
+      <c r="A55" s="704" t="s">
         <v>576</v>
       </c>
-      <c r="B55" s="693"/>
-      <c r="C55" s="693"/>
-      <c r="D55" s="693"/>
-      <c r="E55" s="693"/>
-      <c r="F55" s="693"/>
-      <c r="G55" s="693"/>
-      <c r="H55" s="693"/>
-      <c r="I55" s="693"/>
-      <c r="J55" s="693"/>
-      <c r="K55" s="693"/>
-      <c r="L55" s="693"/>
+      <c r="B55" s="704"/>
+      <c r="C55" s="704"/>
+      <c r="D55" s="704"/>
+      <c r="E55" s="704"/>
+      <c r="F55" s="704"/>
+      <c r="G55" s="704"/>
+      <c r="H55" s="704"/>
+      <c r="I55" s="704"/>
+      <c r="J55" s="704"/>
+      <c r="K55" s="704"/>
+      <c r="L55" s="704"/>
     </row>
     <row r="56" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="77" t="s">
@@ -51306,20 +51311,20 @@
       <c r="L57" s="231"/>
     </row>
     <row r="58" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="693" t="s">
+      <c r="A58" s="704" t="s">
         <v>581</v>
       </c>
-      <c r="B58" s="693"/>
-      <c r="C58" s="693"/>
-      <c r="D58" s="693"/>
-      <c r="E58" s="693"/>
-      <c r="F58" s="693"/>
-      <c r="G58" s="693"/>
-      <c r="H58" s="693"/>
-      <c r="I58" s="693"/>
-      <c r="J58" s="693"/>
-      <c r="K58" s="693"/>
-      <c r="L58" s="693"/>
+      <c r="B58" s="704"/>
+      <c r="C58" s="704"/>
+      <c r="D58" s="704"/>
+      <c r="E58" s="704"/>
+      <c r="F58" s="704"/>
+      <c r="G58" s="704"/>
+      <c r="H58" s="704"/>
+      <c r="I58" s="704"/>
+      <c r="J58" s="704"/>
+      <c r="K58" s="704"/>
+      <c r="L58" s="704"/>
     </row>
     <row r="59" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="77" t="s">
@@ -51370,20 +51375,20 @@
       <c r="L60" s="231"/>
     </row>
     <row r="61" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="693" t="s">
+      <c r="A61" s="704" t="s">
         <v>587</v>
       </c>
-      <c r="B61" s="693"/>
-      <c r="C61" s="693"/>
-      <c r="D61" s="693"/>
-      <c r="E61" s="693"/>
-      <c r="F61" s="693"/>
-      <c r="G61" s="693"/>
-      <c r="H61" s="693"/>
-      <c r="I61" s="693"/>
-      <c r="J61" s="693"/>
-      <c r="K61" s="693"/>
-      <c r="L61" s="693"/>
+      <c r="B61" s="704"/>
+      <c r="C61" s="704"/>
+      <c r="D61" s="704"/>
+      <c r="E61" s="704"/>
+      <c r="F61" s="704"/>
+      <c r="G61" s="704"/>
+      <c r="H61" s="704"/>
+      <c r="I61" s="704"/>
+      <c r="J61" s="704"/>
+      <c r="K61" s="704"/>
+      <c r="L61" s="704"/>
     </row>
     <row r="62" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="77" t="s">
@@ -51434,20 +51439,20 @@
       <c r="L63" s="231"/>
     </row>
     <row r="64" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="690" t="s">
+      <c r="A64" s="705" t="s">
         <v>593</v>
       </c>
-      <c r="B64" s="691"/>
-      <c r="C64" s="691"/>
-      <c r="D64" s="691"/>
-      <c r="E64" s="691"/>
-      <c r="F64" s="691"/>
-      <c r="G64" s="691"/>
-      <c r="H64" s="691"/>
-      <c r="I64" s="691"/>
-      <c r="J64" s="691"/>
-      <c r="K64" s="691"/>
-      <c r="L64" s="692"/>
+      <c r="B64" s="706"/>
+      <c r="C64" s="706"/>
+      <c r="D64" s="706"/>
+      <c r="E64" s="706"/>
+      <c r="F64" s="706"/>
+      <c r="G64" s="706"/>
+      <c r="H64" s="706"/>
+      <c r="I64" s="706"/>
+      <c r="J64" s="706"/>
+      <c r="K64" s="706"/>
+      <c r="L64" s="707"/>
     </row>
     <row r="65" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="77" t="s">
@@ -51546,20 +51551,20 @@
       <c r="L68" s="231"/>
     </row>
     <row r="69" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="693" t="s">
+      <c r="A69" s="704" t="s">
         <v>605</v>
       </c>
-      <c r="B69" s="693"/>
-      <c r="C69" s="693"/>
-      <c r="D69" s="693"/>
-      <c r="E69" s="693"/>
-      <c r="F69" s="693"/>
-      <c r="G69" s="693"/>
-      <c r="H69" s="693"/>
-      <c r="I69" s="693"/>
-      <c r="J69" s="693"/>
-      <c r="K69" s="693"/>
-      <c r="L69" s="693"/>
+      <c r="B69" s="704"/>
+      <c r="C69" s="704"/>
+      <c r="D69" s="704"/>
+      <c r="E69" s="704"/>
+      <c r="F69" s="704"/>
+      <c r="G69" s="704"/>
+      <c r="H69" s="704"/>
+      <c r="I69" s="704"/>
+      <c r="J69" s="704"/>
+      <c r="K69" s="704"/>
+      <c r="L69" s="704"/>
     </row>
     <row r="70" spans="1:12" s="516" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="512" t="s">
@@ -51682,20 +51687,20 @@
       <c r="L74" s="231"/>
     </row>
     <row r="75" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="693" t="s">
+      <c r="A75" s="704" t="s">
         <v>618</v>
       </c>
-      <c r="B75" s="693"/>
-      <c r="C75" s="693"/>
-      <c r="D75" s="693"/>
-      <c r="E75" s="693"/>
-      <c r="F75" s="693"/>
-      <c r="G75" s="693"/>
-      <c r="H75" s="693"/>
-      <c r="I75" s="693"/>
-      <c r="J75" s="693"/>
-      <c r="K75" s="693"/>
-      <c r="L75" s="693"/>
+      <c r="B75" s="704"/>
+      <c r="C75" s="704"/>
+      <c r="D75" s="704"/>
+      <c r="E75" s="704"/>
+      <c r="F75" s="704"/>
+      <c r="G75" s="704"/>
+      <c r="H75" s="704"/>
+      <c r="I75" s="704"/>
+      <c r="J75" s="704"/>
+      <c r="K75" s="704"/>
+      <c r="L75" s="704"/>
     </row>
     <row r="76" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="77" t="s">
@@ -51770,20 +51775,20 @@
       <c r="L78" s="231"/>
     </row>
     <row r="79" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="693" t="s">
+      <c r="A79" s="704" t="s">
         <v>626</v>
       </c>
-      <c r="B79" s="693"/>
-      <c r="C79" s="693"/>
-      <c r="D79" s="693"/>
-      <c r="E79" s="693"/>
-      <c r="F79" s="693"/>
-      <c r="G79" s="693"/>
-      <c r="H79" s="693"/>
-      <c r="I79" s="693"/>
-      <c r="J79" s="693"/>
-      <c r="K79" s="693"/>
-      <c r="L79" s="693"/>
+      <c r="B79" s="704"/>
+      <c r="C79" s="704"/>
+      <c r="D79" s="704"/>
+      <c r="E79" s="704"/>
+      <c r="F79" s="704"/>
+      <c r="G79" s="704"/>
+      <c r="H79" s="704"/>
+      <c r="I79" s="704"/>
+      <c r="J79" s="704"/>
+      <c r="K79" s="704"/>
+      <c r="L79" s="704"/>
     </row>
     <row r="80" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="77" t="s">
@@ -51882,20 +51887,20 @@
       <c r="L83" s="231"/>
     </row>
     <row r="84" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="693" t="s">
+      <c r="A84" s="704" t="s">
         <v>636</v>
       </c>
-      <c r="B84" s="693"/>
-      <c r="C84" s="693"/>
-      <c r="D84" s="693"/>
-      <c r="E84" s="693"/>
-      <c r="F84" s="693"/>
-      <c r="G84" s="693"/>
-      <c r="H84" s="693"/>
-      <c r="I84" s="693"/>
-      <c r="J84" s="693"/>
-      <c r="K84" s="693"/>
-      <c r="L84" s="693"/>
+      <c r="B84" s="704"/>
+      <c r="C84" s="704"/>
+      <c r="D84" s="704"/>
+      <c r="E84" s="704"/>
+      <c r="F84" s="704"/>
+      <c r="G84" s="704"/>
+      <c r="H84" s="704"/>
+      <c r="I84" s="704"/>
+      <c r="J84" s="704"/>
+      <c r="K84" s="704"/>
+      <c r="L84" s="704"/>
     </row>
     <row r="85" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="77" t="s">
@@ -51946,20 +51951,20 @@
       <c r="L86" s="231"/>
     </row>
     <row r="87" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="693" t="s">
+      <c r="A87" s="704" t="s">
         <v>642</v>
       </c>
-      <c r="B87" s="693"/>
-      <c r="C87" s="693"/>
-      <c r="D87" s="693"/>
-      <c r="E87" s="693"/>
-      <c r="F87" s="693"/>
-      <c r="G87" s="693"/>
-      <c r="H87" s="693"/>
-      <c r="I87" s="693"/>
-      <c r="J87" s="693"/>
-      <c r="K87" s="693"/>
-      <c r="L87" s="693"/>
+      <c r="B87" s="704"/>
+      <c r="C87" s="704"/>
+      <c r="D87" s="704"/>
+      <c r="E87" s="704"/>
+      <c r="F87" s="704"/>
+      <c r="G87" s="704"/>
+      <c r="H87" s="704"/>
+      <c r="I87" s="704"/>
+      <c r="J87" s="704"/>
+      <c r="K87" s="704"/>
+      <c r="L87" s="704"/>
     </row>
     <row r="88" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="77" t="s">
@@ -52058,20 +52063,20 @@
       <c r="L91" s="231"/>
     </row>
     <row r="92" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="693" t="s">
+      <c r="A92" s="704" t="s">
         <v>650</v>
       </c>
-      <c r="B92" s="693"/>
-      <c r="C92" s="693"/>
-      <c r="D92" s="693"/>
-      <c r="E92" s="693"/>
-      <c r="F92" s="693"/>
-      <c r="G92" s="693"/>
-      <c r="H92" s="693"/>
-      <c r="I92" s="693"/>
-      <c r="J92" s="693"/>
-      <c r="K92" s="693"/>
-      <c r="L92" s="693"/>
+      <c r="B92" s="704"/>
+      <c r="C92" s="704"/>
+      <c r="D92" s="704"/>
+      <c r="E92" s="704"/>
+      <c r="F92" s="704"/>
+      <c r="G92" s="704"/>
+      <c r="H92" s="704"/>
+      <c r="I92" s="704"/>
+      <c r="J92" s="704"/>
+      <c r="K92" s="704"/>
+      <c r="L92" s="704"/>
     </row>
     <row r="93" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="77" t="s">
@@ -52146,20 +52151,20 @@
       <c r="L95" s="231"/>
     </row>
     <row r="96" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="693" t="s">
+      <c r="A96" s="704" t="s">
         <v>658</v>
       </c>
-      <c r="B96" s="693"/>
-      <c r="C96" s="693"/>
-      <c r="D96" s="693"/>
-      <c r="E96" s="693"/>
-      <c r="F96" s="693"/>
-      <c r="G96" s="693"/>
-      <c r="H96" s="693"/>
-      <c r="I96" s="693"/>
-      <c r="J96" s="693"/>
-      <c r="K96" s="693"/>
-      <c r="L96" s="693"/>
+      <c r="B96" s="704"/>
+      <c r="C96" s="704"/>
+      <c r="D96" s="704"/>
+      <c r="E96" s="704"/>
+      <c r="F96" s="704"/>
+      <c r="G96" s="704"/>
+      <c r="H96" s="704"/>
+      <c r="I96" s="704"/>
+      <c r="J96" s="704"/>
+      <c r="K96" s="704"/>
+      <c r="L96" s="704"/>
     </row>
     <row r="97" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="77" t="s">
@@ -52210,20 +52215,20 @@
       <c r="L98" s="231"/>
     </row>
     <row r="99" spans="1:12" s="235" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="702" t="s">
+      <c r="A99" s="708" t="s">
         <v>663</v>
       </c>
-      <c r="B99" s="702"/>
-      <c r="C99" s="702"/>
-      <c r="D99" s="702"/>
-      <c r="E99" s="702"/>
-      <c r="F99" s="702"/>
-      <c r="G99" s="702"/>
-      <c r="H99" s="702"/>
-      <c r="I99" s="702"/>
-      <c r="J99" s="702"/>
-      <c r="K99" s="702"/>
-      <c r="L99" s="702"/>
+      <c r="B99" s="708"/>
+      <c r="C99" s="708"/>
+      <c r="D99" s="708"/>
+      <c r="E99" s="708"/>
+      <c r="F99" s="708"/>
+      <c r="G99" s="708"/>
+      <c r="H99" s="708"/>
+      <c r="I99" s="708"/>
+      <c r="J99" s="708"/>
+      <c r="K99" s="708"/>
+      <c r="L99" s="708"/>
     </row>
     <row r="100" spans="1:12" s="235" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="236" t="s">
@@ -52434,16 +52439,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A58:L58"/>
@@ -52459,6 +52454,16 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52529,19 +52534,19 @@
       <c r="L1" s="263"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="703" t="s">
+      <c r="A2" s="717" t="s">
         <v>801</v>
       </c>
-      <c r="B2" s="704"/>
-      <c r="C2" s="704"/>
-      <c r="D2" s="704"/>
-      <c r="E2" s="704"/>
-      <c r="F2" s="704"/>
-      <c r="G2" s="704"/>
-      <c r="H2" s="704"/>
-      <c r="I2" s="704"/>
-      <c r="J2" s="704"/>
-      <c r="K2" s="705"/>
+      <c r="B2" s="718"/>
+      <c r="C2" s="718"/>
+      <c r="D2" s="718"/>
+      <c r="E2" s="718"/>
+      <c r="F2" s="718"/>
+      <c r="G2" s="718"/>
+      <c r="H2" s="718"/>
+      <c r="I2" s="718"/>
+      <c r="J2" s="718"/>
+      <c r="K2" s="719"/>
       <c r="L2" s="253"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52671,19 +52676,19 @@
       <c r="L8" s="273"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="703" t="s">
+      <c r="A9" s="717" t="s">
         <v>813</v>
       </c>
-      <c r="B9" s="704"/>
-      <c r="C9" s="704"/>
-      <c r="D9" s="704"/>
-      <c r="E9" s="704"/>
-      <c r="F9" s="704"/>
-      <c r="G9" s="704"/>
-      <c r="H9" s="704"/>
-      <c r="I9" s="704"/>
-      <c r="J9" s="704"/>
-      <c r="K9" s="705"/>
+      <c r="B9" s="718"/>
+      <c r="C9" s="718"/>
+      <c r="D9" s="718"/>
+      <c r="E9" s="718"/>
+      <c r="F9" s="718"/>
+      <c r="G9" s="718"/>
+      <c r="H9" s="718"/>
+      <c r="I9" s="718"/>
+      <c r="J9" s="718"/>
+      <c r="K9" s="719"/>
       <c r="L9" s="253"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52797,19 +52802,19 @@
       <c r="L14" s="276"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="706" t="s">
+      <c r="A15" s="720" t="s">
         <v>824</v>
       </c>
-      <c r="B15" s="706"/>
-      <c r="C15" s="706"/>
-      <c r="D15" s="706"/>
-      <c r="E15" s="706"/>
-      <c r="F15" s="706"/>
-      <c r="G15" s="706"/>
-      <c r="H15" s="706"/>
-      <c r="I15" s="706"/>
-      <c r="J15" s="706"/>
-      <c r="K15" s="706"/>
+      <c r="B15" s="720"/>
+      <c r="C15" s="720"/>
+      <c r="D15" s="720"/>
+      <c r="E15" s="720"/>
+      <c r="F15" s="720"/>
+      <c r="G15" s="720"/>
+      <c r="H15" s="720"/>
+      <c r="I15" s="720"/>
+      <c r="J15" s="720"/>
+      <c r="K15" s="720"/>
       <c r="L15" s="253"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52945,19 +52950,19 @@
       <c r="L21" s="279"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="703" t="s">
+      <c r="A22" s="717" t="s">
         <v>837</v>
       </c>
-      <c r="B22" s="704"/>
-      <c r="C22" s="704"/>
-      <c r="D22" s="704"/>
-      <c r="E22" s="704"/>
-      <c r="F22" s="704"/>
-      <c r="G22" s="704"/>
-      <c r="H22" s="704"/>
-      <c r="I22" s="704"/>
-      <c r="J22" s="704"/>
-      <c r="K22" s="705"/>
+      <c r="B22" s="718"/>
+      <c r="C22" s="718"/>
+      <c r="D22" s="718"/>
+      <c r="E22" s="718"/>
+      <c r="F22" s="718"/>
+      <c r="G22" s="718"/>
+      <c r="H22" s="718"/>
+      <c r="I22" s="718"/>
+      <c r="J22" s="718"/>
+      <c r="K22" s="719"/>
       <c r="L22" s="253"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -53049,19 +53054,19 @@
       <c r="L26" s="277"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="703" t="s">
+      <c r="A27" s="717" t="s">
         <v>846</v>
       </c>
-      <c r="B27" s="704"/>
-      <c r="C27" s="704"/>
-      <c r="D27" s="704"/>
-      <c r="E27" s="704"/>
-      <c r="F27" s="704"/>
-      <c r="G27" s="704"/>
-      <c r="H27" s="704"/>
-      <c r="I27" s="704"/>
-      <c r="J27" s="704"/>
-      <c r="K27" s="705"/>
+      <c r="B27" s="718"/>
+      <c r="C27" s="718"/>
+      <c r="D27" s="718"/>
+      <c r="E27" s="718"/>
+      <c r="F27" s="718"/>
+      <c r="G27" s="718"/>
+      <c r="H27" s="718"/>
+      <c r="I27" s="718"/>
+      <c r="J27" s="718"/>
+      <c r="K27" s="719"/>
       <c r="L27" s="253"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -53309,19 +53314,19 @@
       <c r="L38" s="250"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="703" t="s">
+      <c r="A39" s="717" t="s">
         <v>870</v>
       </c>
-      <c r="B39" s="704"/>
-      <c r="C39" s="704"/>
-      <c r="D39" s="704"/>
-      <c r="E39" s="704"/>
-      <c r="F39" s="704"/>
-      <c r="G39" s="704"/>
-      <c r="H39" s="704"/>
-      <c r="I39" s="704"/>
-      <c r="J39" s="704"/>
-      <c r="K39" s="705"/>
+      <c r="B39" s="718"/>
+      <c r="C39" s="718"/>
+      <c r="D39" s="718"/>
+      <c r="E39" s="718"/>
+      <c r="F39" s="718"/>
+      <c r="G39" s="718"/>
+      <c r="H39" s="718"/>
+      <c r="I39" s="718"/>
+      <c r="J39" s="718"/>
+      <c r="K39" s="719"/>
       <c r="L39" s="250"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -53613,19 +53618,19 @@
       <c r="L52" s="250"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="703" t="s">
+      <c r="A53" s="717" t="s">
         <v>895</v>
       </c>
-      <c r="B53" s="704"/>
-      <c r="C53" s="704"/>
-      <c r="D53" s="704"/>
-      <c r="E53" s="704"/>
-      <c r="F53" s="704"/>
-      <c r="G53" s="704"/>
-      <c r="H53" s="704"/>
-      <c r="I53" s="704"/>
-      <c r="J53" s="704"/>
-      <c r="K53" s="705"/>
+      <c r="B53" s="718"/>
+      <c r="C53" s="718"/>
+      <c r="D53" s="718"/>
+      <c r="E53" s="718"/>
+      <c r="F53" s="718"/>
+      <c r="G53" s="718"/>
+      <c r="H53" s="718"/>
+      <c r="I53" s="718"/>
+      <c r="J53" s="718"/>
+      <c r="K53" s="719"/>
       <c r="L53" s="250"/>
     </row>
     <row r="54" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53695,19 +53700,19 @@
       <c r="L56" s="250"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="703" t="s">
+      <c r="A57" s="717" t="s">
         <v>899</v>
       </c>
-      <c r="B57" s="704"/>
-      <c r="C57" s="704"/>
-      <c r="D57" s="704"/>
-      <c r="E57" s="704"/>
-      <c r="F57" s="704"/>
-      <c r="G57" s="704"/>
-      <c r="H57" s="704"/>
-      <c r="I57" s="704"/>
-      <c r="J57" s="704"/>
-      <c r="K57" s="705"/>
+      <c r="B57" s="718"/>
+      <c r="C57" s="718"/>
+      <c r="D57" s="718"/>
+      <c r="E57" s="718"/>
+      <c r="F57" s="718"/>
+      <c r="G57" s="718"/>
+      <c r="H57" s="718"/>
+      <c r="I57" s="718"/>
+      <c r="J57" s="718"/>
+      <c r="K57" s="719"/>
       <c r="L57" s="250"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -53821,19 +53826,19 @@
       <c r="L62" s="250"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="703" t="s">
+      <c r="A63" s="717" t="s">
         <v>910</v>
       </c>
-      <c r="B63" s="704"/>
-      <c r="C63" s="704"/>
-      <c r="D63" s="704"/>
-      <c r="E63" s="704"/>
-      <c r="F63" s="704"/>
-      <c r="G63" s="704"/>
-      <c r="H63" s="704"/>
-      <c r="I63" s="704"/>
-      <c r="J63" s="704"/>
-      <c r="K63" s="705"/>
+      <c r="B63" s="718"/>
+      <c r="C63" s="718"/>
+      <c r="D63" s="718"/>
+      <c r="E63" s="718"/>
+      <c r="F63" s="718"/>
+      <c r="G63" s="718"/>
+      <c r="H63" s="718"/>
+      <c r="I63" s="718"/>
+      <c r="J63" s="718"/>
+      <c r="K63" s="719"/>
       <c r="L63" s="250"/>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -56179,25 +56184,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="592" t="s">
+      <c r="C5" s="634" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="593"/>
-      <c r="E5" s="594"/>
+      <c r="D5" s="635"/>
+      <c r="E5" s="636"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="584"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="584"/>
+      <c r="H5" s="632"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="632"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="615"/>
-      <c r="E6" s="616"/>
+      <c r="C6" s="608"/>
+      <c r="D6" s="609"/>
+      <c r="E6" s="610"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -56207,23 +56212,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="596"/>
-      <c r="E7" s="597"/>
+      <c r="C7" s="637"/>
+      <c r="D7" s="638"/>
+      <c r="E7" s="639"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="584"/>
-      <c r="J7" s="584"/>
+      <c r="H7" s="632"/>
+      <c r="I7" s="632"/>
+      <c r="J7" s="632"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="598" t="s">
+      <c r="C8" s="640" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="599"/>
-      <c r="E8" s="600"/>
+      <c r="D8" s="641"/>
+      <c r="E8" s="642"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -56246,58 +56251,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="585" t="s">
+      <c r="B11" s="626" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="586"/>
-      <c r="D11" s="587"/>
-      <c r="E11" s="587"/>
-      <c r="F11" s="588"/>
+      <c r="C11" s="627"/>
+      <c r="D11" s="633"/>
+      <c r="E11" s="633"/>
+      <c r="F11" s="628"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="589"/>
-      <c r="D12" s="590"/>
-      <c r="E12" s="590"/>
-      <c r="F12" s="591"/>
+      <c r="C12" s="619"/>
+      <c r="D12" s="621"/>
+      <c r="E12" s="621"/>
+      <c r="F12" s="622"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="589"/>
-      <c r="D13" s="590"/>
-      <c r="E13" s="590"/>
-      <c r="F13" s="591"/>
+      <c r="C13" s="619"/>
+      <c r="D13" s="621"/>
+      <c r="E13" s="621"/>
+      <c r="F13" s="622"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="589"/>
-      <c r="D14" s="590"/>
-      <c r="E14" s="590"/>
-      <c r="F14" s="591"/>
+      <c r="C14" s="619"/>
+      <c r="D14" s="621"/>
+      <c r="E14" s="621"/>
+      <c r="F14" s="622"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="589"/>
-      <c r="D15" s="590"/>
-      <c r="E15" s="590"/>
-      <c r="F15" s="591"/>
+      <c r="C15" s="619"/>
+      <c r="D15" s="621"/>
+      <c r="E15" s="621"/>
+      <c r="F15" s="622"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="625"/>
-      <c r="D16" s="626"/>
-      <c r="E16" s="626"/>
-      <c r="F16" s="627"/>
+      <c r="C16" s="623"/>
+      <c r="D16" s="624"/>
+      <c r="E16" s="624"/>
+      <c r="F16" s="625"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -56307,13 +56312,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="585" t="s">
+      <c r="B18" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="586"/>
-      <c r="D18" s="586"/>
-      <c r="E18" s="586"/>
-      <c r="F18" s="588"/>
+      <c r="C18" s="627"/>
+      <c r="D18" s="627"/>
+      <c r="E18" s="627"/>
+      <c r="F18" s="628"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -56325,10 +56330,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="620" t="s">
+      <c r="E19" s="614" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="628"/>
+      <c r="F19" s="629"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -56340,73 +56345,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="589" t="s">
+      <c r="E20" s="619" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="601"/>
+      <c r="F20" s="620"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="589"/>
-      <c r="F21" s="601"/>
+      <c r="E21" s="619"/>
+      <c r="F21" s="620"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="589"/>
-      <c r="F22" s="601"/>
+      <c r="E22" s="619"/>
+      <c r="F22" s="620"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="589"/>
-      <c r="F23" s="601"/>
+      <c r="E23" s="619"/>
+      <c r="F23" s="620"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="589"/>
-      <c r="F24" s="601"/>
+      <c r="E24" s="619"/>
+      <c r="F24" s="620"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="589"/>
-      <c r="F25" s="601"/>
+      <c r="E25" s="619"/>
+      <c r="F25" s="620"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="589"/>
-      <c r="F26" s="601"/>
+      <c r="E26" s="619"/>
+      <c r="F26" s="620"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="589"/>
-      <c r="F27" s="601"/>
+      <c r="E27" s="619"/>
+      <c r="F27" s="620"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="589"/>
-      <c r="F28" s="601"/>
+      <c r="E28" s="619"/>
+      <c r="F28" s="620"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="602"/>
-      <c r="F29" s="603"/>
+      <c r="E29" s="630"/>
+      <c r="F29" s="631"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -56416,67 +56421,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="617" t="s">
+      <c r="B31" s="611" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="618"/>
-      <c r="D31" s="618"/>
-      <c r="E31" s="619"/>
+      <c r="C31" s="612"/>
+      <c r="D31" s="612"/>
+      <c r="E31" s="613"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="620" t="s">
+      <c r="C32" s="614" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="621"/>
-      <c r="E32" s="621"/>
+      <c r="D32" s="615"/>
+      <c r="E32" s="615"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="606"/>
-      <c r="D33" s="607"/>
-      <c r="E33" s="607"/>
+      <c r="C33" s="600"/>
+      <c r="D33" s="601"/>
+      <c r="E33" s="601"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="622"/>
-      <c r="D34" s="623"/>
-      <c r="E34" s="624"/>
+      <c r="C34" s="616"/>
+      <c r="D34" s="617"/>
+      <c r="E34" s="618"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="604"/>
-      <c r="D35" s="605"/>
-      <c r="E35" s="605"/>
+      <c r="C35" s="598"/>
+      <c r="D35" s="599"/>
+      <c r="E35" s="599"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="606"/>
-      <c r="D36" s="607"/>
-      <c r="E36" s="607"/>
+      <c r="C36" s="600"/>
+      <c r="D36" s="601"/>
+      <c r="E36" s="601"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="608"/>
-      <c r="D37" s="609"/>
-      <c r="E37" s="610"/>
+      <c r="C37" s="602"/>
+      <c r="D37" s="603"/>
+      <c r="E37" s="604"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="611"/>
-      <c r="D38" s="612"/>
-      <c r="E38" s="613"/>
+      <c r="C38" s="605"/>
+      <c r="D38" s="606"/>
+      <c r="E38" s="607"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -56502,6 +56507,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -56518,22 +56539,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56570,10 +56575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="629" t="s">
+      <c r="A1" s="679" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="629"/>
+      <c r="B1" s="679"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -56608,250 +56613,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="630" t="s">
+      <c r="A2" s="680" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="630" t="s">
+      <c r="B2" s="680" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="630" t="s">
+      <c r="C2" s="680" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="633" t="s">
+      <c r="D2" s="683" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="642" t="s">
+      <c r="E2" s="683"/>
+      <c r="F2" s="683"/>
+      <c r="G2" s="649" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="643"/>
-      <c r="I2" s="643"/>
-      <c r="J2" s="644"/>
-      <c r="K2" s="660" t="s">
+      <c r="H2" s="650"/>
+      <c r="I2" s="650"/>
+      <c r="J2" s="655"/>
+      <c r="K2" s="643" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="660"/>
-      <c r="M2" s="642" t="s">
+      <c r="L2" s="643"/>
+      <c r="M2" s="649" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="643"/>
-      <c r="O2" s="644"/>
-      <c r="P2" s="642" t="s">
+      <c r="N2" s="650"/>
+      <c r="O2" s="655"/>
+      <c r="P2" s="649" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="644"/>
-      <c r="R2" s="642" t="s">
+      <c r="Q2" s="655"/>
+      <c r="R2" s="649" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="643"/>
-      <c r="T2" s="642" t="s">
+      <c r="S2" s="650"/>
+      <c r="T2" s="649" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="643"/>
-      <c r="V2" s="643"/>
-      <c r="W2" s="643"/>
-      <c r="X2" s="644"/>
-      <c r="Y2" s="642" t="s">
+      <c r="U2" s="650"/>
+      <c r="V2" s="650"/>
+      <c r="W2" s="650"/>
+      <c r="X2" s="655"/>
+      <c r="Y2" s="649" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="643"/>
-      <c r="AA2" s="643"/>
-      <c r="AB2" s="644"/>
-      <c r="AC2" s="636" t="s">
+      <c r="Z2" s="650"/>
+      <c r="AA2" s="650"/>
+      <c r="AB2" s="655"/>
+      <c r="AC2" s="664" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="637"/>
-      <c r="AE2" s="637"/>
-      <c r="AF2" s="652"/>
-      <c r="AG2" s="636" t="s">
+      <c r="AD2" s="665"/>
+      <c r="AE2" s="665"/>
+      <c r="AF2" s="674"/>
+      <c r="AG2" s="664" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="637"/>
-      <c r="AI2" s="637"/>
+      <c r="AH2" s="665"/>
+      <c r="AI2" s="665"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="631"/>
-      <c r="B3" s="631"/>
-      <c r="C3" s="631"/>
-      <c r="D3" s="633"/>
-      <c r="E3" s="633"/>
-      <c r="F3" s="633"/>
-      <c r="G3" s="638"/>
-      <c r="H3" s="639"/>
-      <c r="I3" s="639"/>
-      <c r="J3" s="645"/>
-      <c r="K3" s="660" t="s">
+      <c r="A3" s="681"/>
+      <c r="B3" s="681"/>
+      <c r="C3" s="681"/>
+      <c r="D3" s="683"/>
+      <c r="E3" s="683"/>
+      <c r="F3" s="683"/>
+      <c r="G3" s="651"/>
+      <c r="H3" s="652"/>
+      <c r="I3" s="652"/>
+      <c r="J3" s="656"/>
+      <c r="K3" s="643" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="660"/>
-      <c r="M3" s="638"/>
-      <c r="N3" s="639"/>
-      <c r="O3" s="645"/>
-      <c r="P3" s="638"/>
-      <c r="Q3" s="645"/>
-      <c r="R3" s="638"/>
-      <c r="S3" s="639"/>
-      <c r="T3" s="638"/>
-      <c r="U3" s="639"/>
-      <c r="V3" s="639"/>
-      <c r="W3" s="639"/>
-      <c r="X3" s="645"/>
-      <c r="Y3" s="638"/>
-      <c r="Z3" s="639"/>
-      <c r="AA3" s="639"/>
-      <c r="AB3" s="645"/>
-      <c r="AC3" s="638"/>
-      <c r="AD3" s="639"/>
-      <c r="AE3" s="639"/>
-      <c r="AF3" s="645"/>
-      <c r="AG3" s="638"/>
-      <c r="AH3" s="639"/>
-      <c r="AI3" s="639"/>
+      <c r="L3" s="643"/>
+      <c r="M3" s="651"/>
+      <c r="N3" s="652"/>
+      <c r="O3" s="656"/>
+      <c r="P3" s="651"/>
+      <c r="Q3" s="656"/>
+      <c r="R3" s="651"/>
+      <c r="S3" s="652"/>
+      <c r="T3" s="651"/>
+      <c r="U3" s="652"/>
+      <c r="V3" s="652"/>
+      <c r="W3" s="652"/>
+      <c r="X3" s="656"/>
+      <c r="Y3" s="651"/>
+      <c r="Z3" s="652"/>
+      <c r="AA3" s="652"/>
+      <c r="AB3" s="656"/>
+      <c r="AC3" s="651"/>
+      <c r="AD3" s="652"/>
+      <c r="AE3" s="652"/>
+      <c r="AF3" s="656"/>
+      <c r="AG3" s="651"/>
+      <c r="AH3" s="652"/>
+      <c r="AI3" s="652"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="631"/>
-      <c r="B4" s="631"/>
-      <c r="C4" s="631"/>
-      <c r="D4" s="634" t="s">
+      <c r="A4" s="681"/>
+      <c r="B4" s="681"/>
+      <c r="C4" s="681"/>
+      <c r="D4" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="634" t="s">
+      <c r="E4" s="662" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="634" t="s">
+      <c r="F4" s="662" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="658" t="s">
+      <c r="G4" s="660" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="658" t="s">
+      <c r="H4" s="660" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="658" t="s">
+      <c r="I4" s="660" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="658" t="s">
+      <c r="J4" s="660" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="661" t="s">
+      <c r="K4" s="644" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="661" t="s">
+      <c r="L4" s="644" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="663" t="s">
+      <c r="M4" s="646" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="663" t="s">
+      <c r="N4" s="646" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="667" t="s">
+      <c r="O4" s="657" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="668" t="s">
+      <c r="P4" s="658" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="668" t="s">
+      <c r="Q4" s="658" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="665" t="s">
+      <c r="R4" s="653" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="665" t="s">
+      <c r="S4" s="653" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="640" t="s">
+      <c r="T4" s="666" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="656" t="s">
+      <c r="U4" s="677" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="657"/>
-      <c r="W4" s="655" t="s">
+      <c r="V4" s="678"/>
+      <c r="W4" s="648" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="655" t="s">
+      <c r="X4" s="648" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="646" t="s">
+      <c r="Y4" s="668" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="646" t="s">
+      <c r="Z4" s="668" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="650" t="s">
+      <c r="AA4" s="672" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="651"/>
-      <c r="AC4" s="648" t="s">
+      <c r="AB4" s="673"/>
+      <c r="AC4" s="670" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="648" t="s">
+      <c r="AD4" s="670" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="653" t="s">
+      <c r="AE4" s="675" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="654"/>
-      <c r="AG4" s="634" t="s">
+      <c r="AF4" s="676"/>
+      <c r="AG4" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="634" t="s">
+      <c r="AH4" s="662" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="634" t="s">
+      <c r="AI4" s="662" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="632"/>
-      <c r="B5" s="632"/>
-      <c r="C5" s="632"/>
-      <c r="D5" s="635"/>
-      <c r="E5" s="635"/>
-      <c r="F5" s="635"/>
-      <c r="G5" s="659"/>
-      <c r="H5" s="659"/>
-      <c r="I5" s="659"/>
-      <c r="J5" s="659"/>
-      <c r="K5" s="662"/>
-      <c r="L5" s="662"/>
-      <c r="M5" s="664"/>
-      <c r="N5" s="664"/>
-      <c r="O5" s="664"/>
-      <c r="P5" s="669"/>
-      <c r="Q5" s="669"/>
-      <c r="R5" s="666"/>
-      <c r="S5" s="666"/>
-      <c r="T5" s="641"/>
+      <c r="A5" s="682"/>
+      <c r="B5" s="682"/>
+      <c r="C5" s="682"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="663"/>
+      <c r="G5" s="661"/>
+      <c r="H5" s="661"/>
+      <c r="I5" s="661"/>
+      <c r="J5" s="661"/>
+      <c r="K5" s="645"/>
+      <c r="L5" s="645"/>
+      <c r="M5" s="647"/>
+      <c r="N5" s="647"/>
+      <c r="O5" s="647"/>
+      <c r="P5" s="659"/>
+      <c r="Q5" s="659"/>
+      <c r="R5" s="654"/>
+      <c r="S5" s="654"/>
+      <c r="T5" s="667"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="655"/>
-      <c r="X5" s="655"/>
-      <c r="Y5" s="647"/>
-      <c r="Z5" s="647"/>
+      <c r="W5" s="648"/>
+      <c r="X5" s="648"/>
+      <c r="Y5" s="669"/>
+      <c r="Z5" s="669"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="649"/>
-      <c r="AD5" s="649"/>
+      <c r="AC5" s="671"/>
+      <c r="AD5" s="671"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="635"/>
-      <c r="AH5" s="635"/>
-      <c r="AI5" s="635"/>
+      <c r="AG5" s="663"/>
+      <c r="AH5" s="663"/>
+      <c r="AI5" s="663"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -57114,26 +57119,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -57150,14 +57143,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57640,8 +57645,8 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -57714,10 +57719,10 @@
       <c r="M2" s="414"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="670" t="s">
+      <c r="A3" s="684" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="671"/>
+      <c r="B3" s="685"/>
       <c r="C3" s="432"/>
       <c r="D3" s="432"/>
       <c r="E3" s="422"/>
@@ -57752,10 +57757,10 @@
       <c r="K4" s="559"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="670" t="s">
+      <c r="A5" s="684" t="s">
         <v>1581</v>
       </c>
-      <c r="B5" s="671"/>
+      <c r="B5" s="685"/>
       <c r="C5" s="432"/>
       <c r="D5" s="432"/>
       <c r="E5" s="423"/>
@@ -57838,10 +57843,10 @@
       <c r="M8" s="432"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="670" t="s">
+      <c r="A9" s="684" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="671"/>
+      <c r="B9" s="685"/>
       <c r="C9" s="432"/>
       <c r="D9" s="432"/>
       <c r="E9" s="423"/>
@@ -58062,10 +58067,10 @@
       <c r="M18" s="432"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="670" t="s">
+      <c r="A19" s="684" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="671"/>
+      <c r="B19" s="685"/>
       <c r="C19" s="432"/>
       <c r="D19" s="432"/>
       <c r="E19" s="423"/>
@@ -58171,10 +58176,10 @@
       <c r="M23" s="432"/>
     </row>
     <row r="24" spans="1:13" s="78" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="670" t="s">
+      <c r="A24" s="684" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="671"/>
+      <c r="B24" s="685"/>
       <c r="C24" s="432"/>
       <c r="D24" s="432"/>
       <c r="E24" s="422"/>
@@ -58441,10 +58446,10 @@
       <c r="M35" s="447"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="674" t="s">
+      <c r="A36" s="686" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="675"/>
+      <c r="B36" s="687"/>
       <c r="C36" s="451"/>
       <c r="D36" s="452"/>
       <c r="E36" s="453"/>
@@ -58470,7 +58475,7 @@
       <c r="D37" s="451" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="672" t="s">
+      <c r="E37" s="688" t="s">
         <v>1620</v>
       </c>
       <c r="F37" s="454"/>
@@ -58495,7 +58500,7 @@
       <c r="D38" s="451" t="s">
         <v>1621</v>
       </c>
-      <c r="E38" s="673"/>
+      <c r="E38" s="689"/>
       <c r="F38" s="454"/>
       <c r="G38" s="454"/>
       <c r="H38" s="454"/>
@@ -58506,10 +58511,10 @@
       <c r="M38" s="452"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="670" t="s">
+      <c r="A39" s="684" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="671"/>
+      <c r="B39" s="685"/>
       <c r="C39" s="432"/>
       <c r="D39" s="432"/>
       <c r="E39" s="426"/>
@@ -58569,10 +58574,10 @@
       <c r="M41" s="432"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="670" t="s">
+      <c r="A42" s="684" t="s">
         <v>315</v>
       </c>
-      <c r="B42" s="671"/>
+      <c r="B42" s="685"/>
       <c r="C42" s="432"/>
       <c r="D42" s="432"/>
       <c r="E42" s="426"/>
@@ -59118,10 +59123,10 @@
       <c r="N65" s="414"/>
     </row>
     <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="670" t="s">
+      <c r="A66" s="684" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="671"/>
+      <c r="B66" s="685"/>
       <c r="C66" s="432"/>
       <c r="D66" s="432"/>
       <c r="E66" s="426"/>
@@ -59388,16 +59393,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
